--- a/OWE-DEC21.xlsx
+++ b/OWE-DEC21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Budget\2021-22\Dec 21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development\Office-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EF2392-50EC-40FD-83A4-D7D7AA86CF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2E2E79-090A-456C-9AC5-9311F3A3E989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="599" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13920" yWindow="765" windowWidth="10575" windowHeight="11235" tabRatio="599" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="For Month COPPY" sheetId="7" r:id="rId1"/>
@@ -1993,71 +1993,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2065,16 +2017,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2095,22 +2053,67 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2122,19 +2125,16 @@
     <xf numFmtId="1" fontId="26" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="26" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2142,6 +2142,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2152,16 +2155,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="1" fontId="26" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2172,15 +2181,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3690,46 +3690,46 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="271" t="s">
+      <c r="A3" s="299" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="270" t="s">
+      <c r="B3" s="303" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="268" t="str">
+      <c r="C3" s="305" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="D3" s="270" t="s">
+      <c r="D3" s="303" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="270"/>
-      <c r="F3" s="268" t="str">
+      <c r="E3" s="303"/>
+      <c r="F3" s="305" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G3" s="270" t="s">
+      <c r="G3" s="303" t="s">
         <v>302</v>
       </c>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="303" t="s">
         <v>310</v>
       </c>
-      <c r="I3" s="268" t="str">
+      <c r="I3" s="305" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J3" s="270" t="s">
+      <c r="J3" s="303" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="267" t="s">
+      <c r="K3" s="306" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="267"/>
-      <c r="M3" s="267" t="s">
+      <c r="L3" s="306"/>
+      <c r="M3" s="306" t="s">
         <v>147</v>
       </c>
-      <c r="N3" s="267"/>
-      <c r="O3" s="291" t="s">
+      <c r="N3" s="306"/>
+      <c r="O3" s="279" t="s">
         <v>308</v>
       </c>
       <c r="P3" s="175" t="s">
@@ -3738,16 +3738,16 @@
       <c r="Q3" s="155"/>
     </row>
     <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="272"/>
-      <c r="B4" s="269"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="269"/>
-      <c r="J4" s="269"/>
+      <c r="A4" s="300"/>
+      <c r="B4" s="304"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="304"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
       <c r="K4" s="19" t="s">
         <v>145</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="N4" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="O4" s="291"/>
+      <c r="O4" s="279"/>
       <c r="P4" s="174" t="s">
         <v>293</v>
       </c>
@@ -4025,62 +4025,62 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="277"/>
-      <c r="B11" s="277" t="s">
+      <c r="A11" s="298"/>
+      <c r="B11" s="298" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="275" t="str">
+      <c r="C11" s="287" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="D11" s="277" t="s">
+      <c r="D11" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="277"/>
-      <c r="F11" s="318" t="str">
+      <c r="E11" s="298"/>
+      <c r="F11" s="319" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G11" s="277" t="s">
+      <c r="G11" s="298" t="s">
         <v>303</v>
       </c>
-      <c r="H11" s="277" t="s">
+      <c r="H11" s="298" t="s">
         <v>310</v>
       </c>
-      <c r="I11" s="275" t="str">
+      <c r="I11" s="287" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J11" s="277" t="s">
+      <c r="J11" s="298" t="s">
         <v>205</v>
       </c>
-      <c r="K11" s="278" t="s">
+      <c r="K11" s="295" t="s">
         <v>206</v>
       </c>
-      <c r="L11" s="278"/>
-      <c r="M11" s="278" t="s">
+      <c r="L11" s="295"/>
+      <c r="M11" s="295" t="s">
         <v>147</v>
       </c>
-      <c r="N11" s="278"/>
-      <c r="O11" s="292" t="s">
+      <c r="N11" s="295"/>
+      <c r="O11" s="280" t="s">
         <v>308</v>
       </c>
-      <c r="P11" s="323" t="s">
+      <c r="P11" s="324" t="s">
         <v>267</v>
       </c>
       <c r="Q11" s="163"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="276"/>
-      <c r="B12" s="276"/>
-      <c r="C12" s="276"/>
-      <c r="D12" s="276"/>
-      <c r="E12" s="276"/>
-      <c r="F12" s="319"/>
-      <c r="G12" s="276"/>
-      <c r="H12" s="276"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="276"/>
+      <c r="A12" s="288"/>
+      <c r="B12" s="288"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="288"/>
+      <c r="F12" s="320"/>
+      <c r="G12" s="288"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="288"/>
       <c r="K12" s="64" t="s">
         <v>145</v>
       </c>
@@ -4093,8 +4093,8 @@
       <c r="N12" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="O12" s="292"/>
-      <c r="P12" s="323"/>
+      <c r="O12" s="280"/>
+      <c r="P12" s="324"/>
       <c r="Q12" s="163"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -5192,62 +5192,62 @@
       <c r="Q31" s="165"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="285"/>
-      <c r="B32" s="284" t="s">
+      <c r="A32" s="268"/>
+      <c r="B32" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="C32" s="281" t="str">
+      <c r="C32" s="289" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="D32" s="284" t="s">
+      <c r="D32" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="284"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="315" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G32" s="284" t="s">
+      <c r="G32" s="291" t="s">
         <v>303</v>
       </c>
-      <c r="H32" s="284" t="s">
+      <c r="H32" s="291" t="s">
         <v>310</v>
       </c>
-      <c r="I32" s="281" t="str">
+      <c r="I32" s="289" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J32" s="284" t="s">
+      <c r="J32" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="K32" s="283" t="s">
+      <c r="K32" s="267" t="s">
         <v>206</v>
       </c>
-      <c r="L32" s="283"/>
-      <c r="M32" s="283" t="s">
+      <c r="L32" s="267"/>
+      <c r="M32" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="N32" s="283"/>
-      <c r="O32" s="285" t="s">
+      <c r="N32" s="267"/>
+      <c r="O32" s="268" t="s">
         <v>308</v>
       </c>
-      <c r="P32" s="323" t="s">
+      <c r="P32" s="324" t="s">
         <v>267</v>
       </c>
       <c r="Q32" s="166"/>
     </row>
     <row r="33" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="285"/>
-      <c r="B33" s="282"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="282"/>
+      <c r="A33" s="268"/>
+      <c r="B33" s="290"/>
+      <c r="C33" s="290"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="290"/>
       <c r="F33" s="316"/>
-      <c r="G33" s="282"/>
-      <c r="H33" s="282"/>
-      <c r="I33" s="282"/>
-      <c r="J33" s="282"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="290"/>
+      <c r="J33" s="290"/>
       <c r="K33" s="79" t="s">
         <v>145</v>
       </c>
@@ -5260,8 +5260,8 @@
       <c r="N33" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O33" s="285"/>
-      <c r="P33" s="323"/>
+      <c r="O33" s="268"/>
+      <c r="P33" s="324"/>
       <c r="Q33" s="166"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5320,7 +5320,7 @@
         <f t="shared" ref="O34:O37" si="18">I34/F34</f>
         <v>1.2539489671931956</v>
       </c>
-      <c r="P34" s="324" t="s">
+      <c r="P34" s="327" t="s">
         <v>278</v>
       </c>
       <c r="Q34" s="164">
@@ -5388,7 +5388,7 @@
         <f t="shared" si="18"/>
         <v>0.75073601570166837</v>
       </c>
-      <c r="P35" s="325"/>
+      <c r="P35" s="328"/>
       <c r="Q35" s="164">
         <f>(I35/10)*12+6</f>
         <v>24.36</v>
@@ -5454,7 +5454,7 @@
         <f t="shared" si="18"/>
         <v>0.76694915254237295</v>
       </c>
-      <c r="P36" s="325"/>
+      <c r="P36" s="328"/>
       <c r="Q36" s="164">
         <f>(I36/10)*12</f>
         <v>2.1719999999999997</v>
@@ -5520,7 +5520,7 @@
         <f t="shared" si="18"/>
         <v>0.88569583467872137</v>
       </c>
-      <c r="P37" s="326"/>
+      <c r="P37" s="329"/>
       <c r="Q37" s="74">
         <f>SUM(Q34:Q36)</f>
         <v>38.915999999999997</v>
@@ -5544,64 +5544,64 @@
       <c r="Q39" s="165"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="285" t="s">
+      <c r="A40" s="268" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="284" t="s">
+      <c r="B40" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="C40" s="281" t="str">
+      <c r="C40" s="289" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="D40" s="284" t="s">
+      <c r="D40" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="284"/>
+      <c r="E40" s="291"/>
       <c r="F40" s="315" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G40" s="284" t="s">
+      <c r="G40" s="291" t="s">
         <v>303</v>
       </c>
-      <c r="H40" s="284" t="s">
+      <c r="H40" s="291" t="s">
         <v>310</v>
       </c>
-      <c r="I40" s="281" t="str">
+      <c r="I40" s="289" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J40" s="284" t="s">
+      <c r="J40" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="K40" s="283" t="s">
+      <c r="K40" s="267" t="s">
         <v>206</v>
       </c>
-      <c r="L40" s="283"/>
-      <c r="M40" s="283" t="s">
+      <c r="L40" s="267"/>
+      <c r="M40" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="N40" s="283"/>
-      <c r="O40" s="285" t="s">
+      <c r="N40" s="267"/>
+      <c r="O40" s="268" t="s">
         <v>308</v>
       </c>
-      <c r="P40" s="327" t="s">
+      <c r="P40" s="325" t="s">
         <v>267</v>
       </c>
       <c r="Q40" s="166"/>
     </row>
     <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="285"/>
-      <c r="B41" s="282"/>
-      <c r="C41" s="282"/>
-      <c r="D41" s="282"/>
-      <c r="E41" s="282"/>
+      <c r="A41" s="268"/>
+      <c r="B41" s="290"/>
+      <c r="C41" s="290"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="290"/>
       <c r="F41" s="316"/>
-      <c r="G41" s="282"/>
-      <c r="H41" s="282"/>
-      <c r="I41" s="282"/>
-      <c r="J41" s="282"/>
+      <c r="G41" s="290"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
       <c r="K41" s="79" t="s">
         <v>145</v>
       </c>
@@ -5614,8 +5614,8 @@
       <c r="N41" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O41" s="285"/>
-      <c r="P41" s="328"/>
+      <c r="O41" s="268"/>
+      <c r="P41" s="326"/>
       <c r="Q41" s="166"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6170,7 +6170,7 @@
         <f t="shared" ref="D52:D56" si="32">C52/$C$7</f>
         <v>2.0112106860358282E-2</v>
       </c>
-      <c r="E52" s="298"/>
+      <c r="E52" s="284"/>
       <c r="F52" s="22">
         <f>ROUND('PU Wise OWE'!$AK$126/10000,2)-F43</f>
         <v>127.84</v>
@@ -6238,7 +6238,7 @@
         <f t="shared" si="32"/>
         <v>1.4636689011733478E-2</v>
       </c>
-      <c r="E53" s="299"/>
+      <c r="E53" s="285"/>
       <c r="F53" s="22">
         <f>ROUND('PU Wise OWE'!$AL$126/10000,2)</f>
         <v>100.46</v>
@@ -6307,7 +6307,7 @@
         <f t="shared" si="32"/>
         <v>3.4748795872091766E-2</v>
       </c>
-      <c r="E54" s="300"/>
+      <c r="E54" s="286"/>
       <c r="F54" s="74">
         <f t="shared" ref="F54:I54" si="38">SUM(F52:F53)</f>
         <v>228.3</v>
@@ -6449,46 +6449,46 @@
       <c r="Q57" s="167"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="284" t="s">
+      <c r="B58" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="C58" s="281" t="str">
+      <c r="C58" s="289" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="D58" s="284" t="s">
+      <c r="D58" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="E58" s="284"/>
+      <c r="E58" s="291"/>
       <c r="F58" s="315" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G58" s="284" t="s">
+      <c r="G58" s="291" t="s">
         <v>303</v>
       </c>
-      <c r="H58" s="284" t="s">
+      <c r="H58" s="291" t="s">
         <v>310</v>
       </c>
-      <c r="I58" s="281" t="str">
+      <c r="I58" s="289" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J58" s="284" t="s">
+      <c r="J58" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="K58" s="283" t="s">
+      <c r="K58" s="267" t="s">
         <v>206</v>
       </c>
-      <c r="L58" s="283"/>
-      <c r="M58" s="283" t="s">
+      <c r="L58" s="267"/>
+      <c r="M58" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="N58" s="283"/>
-      <c r="O58" s="285" t="s">
+      <c r="N58" s="267"/>
+      <c r="O58" s="268" t="s">
         <v>308</v>
       </c>
-      <c r="P58" s="323" t="s">
+      <c r="P58" s="324" t="s">
         <v>267</v>
       </c>
       <c r="Q58" s="166"/>
@@ -6497,15 +6497,15 @@
       <c r="A59" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="282"/>
-      <c r="C59" s="282"/>
-      <c r="D59" s="282"/>
-      <c r="E59" s="282"/>
+      <c r="B59" s="290"/>
+      <c r="C59" s="290"/>
+      <c r="D59" s="290"/>
+      <c r="E59" s="290"/>
       <c r="F59" s="316"/>
-      <c r="G59" s="282"/>
-      <c r="H59" s="282"/>
-      <c r="I59" s="282"/>
-      <c r="J59" s="282"/>
+      <c r="G59" s="290"/>
+      <c r="H59" s="290"/>
+      <c r="I59" s="290"/>
+      <c r="J59" s="290"/>
       <c r="K59" s="79" t="s">
         <v>145</v>
       </c>
@@ -6518,8 +6518,8 @@
       <c r="N59" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O59" s="285"/>
-      <c r="P59" s="323"/>
+      <c r="O59" s="268"/>
+      <c r="P59" s="324"/>
       <c r="Q59" s="166"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6537,7 +6537,7 @@
         <f t="shared" ref="D60:D64" si="41">C60/$C$7</f>
         <v>9.3422383631903434E-3</v>
       </c>
-      <c r="E60" s="295"/>
+      <c r="E60" s="281"/>
       <c r="F60" s="22">
         <f>ROUND('PU Wise OWE'!$AM$60/10000,2)</f>
         <v>80.11</v>
@@ -6603,7 +6603,7 @@
         <f t="shared" si="41"/>
         <v>2.3773212523548934E-3</v>
       </c>
-      <c r="E61" s="296"/>
+      <c r="E61" s="282"/>
       <c r="F61" s="22">
         <f>ROUND('PU Wise OWE'!$AM$93/10000,2)</f>
         <v>18.62</v>
@@ -6671,7 +6671,7 @@
         <f t="shared" si="41"/>
         <v>1.6410786263816148E-3</v>
       </c>
-      <c r="E62" s="296"/>
+      <c r="E62" s="282"/>
       <c r="F62" s="22">
         <f>ROUND('PU Wise OWE'!$AN$16/10000,2)</f>
         <v>14.8</v>
@@ -6739,7 +6739,7 @@
         <f t="shared" si="41"/>
         <v>4.2999044121968795E-4</v>
       </c>
-      <c r="E63" s="296"/>
+      <c r="E63" s="282"/>
       <c r="F63" s="22">
         <f>ROUND('PU Wise OWE'!$AN$60/10000,2)</f>
         <v>3.34</v>
@@ -6806,7 +6806,7 @@
         <f t="shared" si="41"/>
         <v>1.3790628683146539E-2</v>
       </c>
-      <c r="E64" s="297"/>
+      <c r="E64" s="283"/>
       <c r="F64" s="26">
         <f>SUM(F60:F63)</f>
         <v>116.87</v>
@@ -7864,36 +7864,36 @@
     </row>
     <row r="87" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="77"/>
-      <c r="B87" s="284" t="s">
+      <c r="B87" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="C87" s="281" t="s">
+      <c r="C87" s="289" t="s">
         <v>305</v>
       </c>
-      <c r="D87" s="284" t="s">
+      <c r="D87" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="E87" s="284"/>
+      <c r="E87" s="291"/>
       <c r="F87" s="315" t="s">
         <v>307</v>
       </c>
-      <c r="G87" s="284" t="s">
+      <c r="G87" s="291" t="s">
         <v>309</v>
       </c>
       <c r="H87" s="152"/>
-      <c r="I87" s="281" t="s">
+      <c r="I87" s="289" t="s">
         <v>306</v>
       </c>
-      <c r="J87" s="284" t="s">
+      <c r="J87" s="291" t="s">
         <v>205</v>
       </c>
       <c r="K87" s="152"/>
       <c r="L87" s="152"/>
-      <c r="M87" s="283" t="s">
+      <c r="M87" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="N87" s="283"/>
-      <c r="O87" s="285" t="s">
+      <c r="N87" s="267"/>
+      <c r="O87" s="268" t="s">
         <v>308</v>
       </c>
       <c r="Q87" s="165"/>
@@ -7902,15 +7902,15 @@
       <c r="A88" s="133" t="s">
         <v>253</v>
       </c>
-      <c r="B88" s="282"/>
-      <c r="C88" s="282"/>
-      <c r="D88" s="282"/>
-      <c r="E88" s="282"/>
+      <c r="B88" s="290"/>
+      <c r="C88" s="290"/>
+      <c r="D88" s="290"/>
+      <c r="E88" s="290"/>
       <c r="F88" s="316"/>
-      <c r="G88" s="282"/>
+      <c r="G88" s="290"/>
       <c r="H88" s="153"/>
-      <c r="I88" s="329"/>
-      <c r="J88" s="282"/>
+      <c r="I88" s="323"/>
+      <c r="J88" s="290"/>
       <c r="K88" s="153"/>
       <c r="L88" s="153"/>
       <c r="M88" s="79" t="s">
@@ -7919,7 +7919,7 @@
       <c r="N88" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O88" s="285"/>
+      <c r="O88" s="268"/>
       <c r="Q88" s="165"/>
     </row>
     <row r="89" spans="1:18" s="147" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8595,39 +8595,39 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="77"/>
-      <c r="B104" s="284" t="s">
+      <c r="B104" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="C104" s="281" t="str">
+      <c r="C104" s="289" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="D104" s="284" t="s">
+      <c r="D104" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="E104" s="284"/>
+      <c r="E104" s="291"/>
       <c r="F104" s="315" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G104" s="284" t="s">
+      <c r="G104" s="291" t="s">
         <v>309</v>
       </c>
       <c r="H104" s="152"/>
-      <c r="I104" s="281" t="str">
+      <c r="I104" s="289" t="str">
         <f>I40</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J104" s="284" t="s">
+      <c r="J104" s="291" t="s">
         <v>205</v>
       </c>
       <c r="K104" s="152"/>
       <c r="L104" s="152"/>
-      <c r="M104" s="283" t="s">
+      <c r="M104" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="N104" s="283"/>
-      <c r="O104" s="285" t="s">
+      <c r="N104" s="267"/>
+      <c r="O104" s="268" t="s">
         <v>308</v>
       </c>
       <c r="Q104" s="165"/>
@@ -8636,15 +8636,15 @@
       <c r="A105" s="133" t="s">
         <v>191</v>
       </c>
-      <c r="B105" s="282"/>
-      <c r="C105" s="282"/>
-      <c r="D105" s="282"/>
-      <c r="E105" s="282"/>
+      <c r="B105" s="290"/>
+      <c r="C105" s="290"/>
+      <c r="D105" s="290"/>
+      <c r="E105" s="290"/>
       <c r="F105" s="316"/>
-      <c r="G105" s="282"/>
+      <c r="G105" s="290"/>
       <c r="H105" s="153"/>
-      <c r="I105" s="282"/>
-      <c r="J105" s="282"/>
+      <c r="I105" s="290"/>
+      <c r="J105" s="290"/>
       <c r="K105" s="153"/>
       <c r="L105" s="153"/>
       <c r="M105" s="79" t="s">
@@ -8653,7 +8653,7 @@
       <c r="N105" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O105" s="285"/>
+      <c r="O105" s="268"/>
       <c r="Q105" s="165"/>
     </row>
     <row r="106" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -9086,14 +9086,73 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="D58:D59"/>
@@ -9110,73 +9169,14 @@
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="K40:L40"/>
   </mergeCells>
   <conditionalFormatting sqref="O13:O27">
     <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
@@ -14815,8 +14815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BQ135"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="BE5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="BE140" sqref="BE140"/>
@@ -42741,235 +42741,235 @@
         <v>329</v>
       </c>
       <c r="C126" s="5">
-        <f>C5+C16+C27+C38+C49+C60+C71+C82+C93+C104+C115</f>
+        <f t="shared" ref="C126:AC126" si="1835">C5+C16+C27+C38+C49+C60+C71+C82+C93+C104+C115</f>
         <v>25156550</v>
       </c>
       <c r="D126" s="5">
-        <f>D5+D16+D27+D38+D49+D60+D71+D82+D93+D104+D115</f>
+        <f t="shared" si="1835"/>
         <v>7013515</v>
       </c>
       <c r="E126" s="5">
-        <f>E5+E16+E27+E38+E49+E60+E71+E82+E93+E104+E115</f>
+        <f t="shared" si="1835"/>
         <v>968237</v>
       </c>
       <c r="F126" s="5">
-        <f>F5+F16+F27+F38+F49+F60+F71+F82+F93+F104+F115</f>
+        <f t="shared" si="1835"/>
         <v>2857835</v>
       </c>
       <c r="G126" s="5">
-        <f>G5+G16+G27+G38+G49+G60+G71+G82+G93+G104+G115</f>
+        <f t="shared" si="1835"/>
         <v>1523783</v>
       </c>
       <c r="H126" s="5">
-        <f>H5+H16+H27+H38+H49+H60+H71+H82+H93+H104+H115</f>
+        <f t="shared" si="1835"/>
         <v>3018888</v>
       </c>
       <c r="I126" s="5">
-        <f>I5+I16+I27+I38+I49+I60+I71+I82+I93+I104+I115</f>
+        <f t="shared" si="1835"/>
         <v>0</v>
       </c>
       <c r="J126" s="5">
-        <f>J5+J16+J27+J38+J49+J60+J71+J82+J93+J104+J115</f>
+        <f t="shared" si="1835"/>
         <v>2057506</v>
       </c>
       <c r="K126" s="5">
-        <f>K5+K16+K27+K38+K49+K60+K71+K82+K93+K104+K115</f>
+        <f t="shared" si="1835"/>
         <v>45018</v>
       </c>
       <c r="L126" s="5">
-        <f>L5+L16+L27+L38+L49+L60+L71+L82+L93+L104+L115</f>
+        <f t="shared" si="1835"/>
         <v>414940</v>
       </c>
       <c r="M126" s="5">
-        <f>M5+M16+M27+M38+M49+M60+M71+M82+M93+M104+M115</f>
+        <f t="shared" si="1835"/>
         <v>1234072</v>
       </c>
       <c r="N126" s="5">
-        <f>N5+N16+N27+N38+N49+N60+N71+N82+N93+N104+N115</f>
+        <f t="shared" si="1835"/>
         <v>29465</v>
       </c>
       <c r="O126" s="5">
-        <f>O5+O16+O27+O38+O49+O60+O71+O82+O93+O104+O115</f>
+        <f t="shared" si="1835"/>
         <v>80179</v>
       </c>
       <c r="P126" s="5">
-        <f>P5+P16+P27+P38+P49+P60+P71+P82+P93+P104+P115</f>
+        <f t="shared" si="1835"/>
         <v>926676</v>
       </c>
       <c r="Q126" s="5">
-        <f>Q5+Q16+Q27+Q38+Q49+Q60+Q71+Q82+Q93+Q104+Q115</f>
+        <f t="shared" si="1835"/>
         <v>0</v>
       </c>
       <c r="R126" s="5">
-        <f>R5+R16+R27+R38+R49+R60+R71+R82+R93+R104+R115</f>
+        <f t="shared" si="1835"/>
         <v>65004</v>
       </c>
       <c r="S126" s="5">
-        <f>S5+S16+S27+S38+S49+S60+S71+S82+S93+S104+S115</f>
+        <f t="shared" si="1835"/>
         <v>829441</v>
       </c>
       <c r="T126" s="5">
-        <f>T5+T16+T27+T38+T49+T60+T71+T82+T93+T104+T115</f>
+        <f t="shared" si="1835"/>
         <v>900009</v>
       </c>
       <c r="U126" s="5">
-        <f>U5+U16+U27+U38+U49+U60+U71+U82+U93+U104+U115</f>
+        <f t="shared" si="1835"/>
         <v>0</v>
       </c>
       <c r="V126" s="16">
-        <f>V5+V16+V27+V38+V49+V60+V71+V82+V93+V104+V115</f>
+        <f t="shared" si="1835"/>
         <v>420004</v>
       </c>
       <c r="W126" s="5">
-        <f>W5+W16+W27+W38+W49+W60+W71+W82+W93+W104+W115</f>
+        <f t="shared" si="1835"/>
         <v>1004</v>
       </c>
       <c r="X126" s="5">
-        <f>X5+X16+X27+X38+X49+X60+X71+X82+X93+X104+X115</f>
+        <f t="shared" si="1835"/>
         <v>406</v>
       </c>
       <c r="Y126" s="5">
-        <f>Y5+Y16+Y27+Y38+Y49+Y60+Y71+Y82+Y93+Y104+Y115</f>
+        <f t="shared" si="1835"/>
         <v>174004</v>
       </c>
       <c r="Z126" s="5">
-        <f>Z5+Z16+Z27+Z38+Z49+Z60+Z71+Z82+Z93+Z104+Z115</f>
+        <f t="shared" si="1835"/>
         <v>17895</v>
       </c>
       <c r="AA126" s="5">
-        <f>AA5+AA16+AA27+AA38+AA49+AA60+AA71+AA82+AA93+AA104+AA115</f>
+        <f t="shared" si="1835"/>
         <v>27280</v>
       </c>
       <c r="AB126" s="5">
-        <f>AB5+AB16+AB27+AB38+AB49+AB60+AB71+AB82+AB93+AB104+AB115</f>
+        <f t="shared" si="1835"/>
         <v>5002</v>
       </c>
       <c r="AC126" s="6">
-        <f>AC5+AC16+AC27+AC38+AC49+AC60+AC71+AC82+AC93+AC104+AC115</f>
+        <f t="shared" si="1835"/>
         <v>1327420</v>
       </c>
       <c r="AD126" s="228">
-        <f t="shared" ref="AD126:AD129" si="1835">SUM(C126:AC126)</f>
+        <f t="shared" ref="AD126:AD129" si="1836">SUM(C126:AC126)</f>
         <v>49094133</v>
       </c>
       <c r="AE126" s="5">
-        <f>AE5+AE16+AE27+AE38+AE49+AE60+AE71+AE82+AE93+AE104+AE115</f>
+        <f t="shared" ref="AE126:BH126" si="1837">AE5+AE16+AE27+AE38+AE49+AE60+AE71+AE82+AE93+AE104+AE115</f>
         <v>46158</v>
       </c>
       <c r="AF126" s="5">
-        <f>AF5+AF16+AF27+AF38+AF49+AF60+AF71+AF82+AF93+AF104+AF115</f>
+        <f t="shared" si="1837"/>
         <v>36098</v>
       </c>
       <c r="AG126" s="5">
-        <f>AG5+AG16+AG27+AG38+AG49+AG60+AG71+AG82+AG93+AG104+AG115</f>
+        <f t="shared" si="1837"/>
         <v>203813</v>
       </c>
       <c r="AH126" s="5">
-        <f>AH5+AH16+AH27+AH38+AH49+AH60+AH71+AH82+AH93+AH104+AH115</f>
+        <f t="shared" si="1837"/>
         <v>0</v>
       </c>
       <c r="AI126" s="5">
-        <f>AI5+AI16+AI27+AI38+AI49+AI60+AI71+AI82+AI93+AI104+AI115</f>
+        <f t="shared" si="1837"/>
         <v>0</v>
       </c>
       <c r="AJ126" s="5">
-        <f>AJ5+AJ16+AJ27+AJ38+AJ49+AJ60+AJ71+AJ82+AJ93+AJ104+AJ115</f>
+        <f t="shared" si="1837"/>
         <v>23613</v>
       </c>
       <c r="AK126" s="5">
-        <f>AK5+AK16+AK27+AK38+AK49+AK60+AK71+AK82+AK93+AK104+AK115</f>
+        <f t="shared" si="1837"/>
         <v>1786509</v>
       </c>
       <c r="AL126" s="5">
-        <f>AL5+AL16+AL27+AL38+AL49+AL60+AL71+AL82+AL93+AL104+AL115</f>
+        <f t="shared" si="1837"/>
         <v>1004640</v>
       </c>
       <c r="AM126" s="5">
-        <f>AM5+AM16+AM27+AM38+AM49+AM60+AM71+AM82+AM93+AM104+AM115</f>
+        <f t="shared" si="1837"/>
         <v>10129888</v>
       </c>
       <c r="AN126" s="5">
-        <f>AN5+AN16+AN27+AN38+AN49+AN60+AN71+AN82+AN93+AN104+AN115</f>
+        <f t="shared" si="1837"/>
         <v>196953</v>
       </c>
       <c r="AO126" s="16">
-        <f>AO5+AO16+AO27+AO38+AO49+AO60+AO71+AO82+AO93+AO104+AO115</f>
+        <f t="shared" si="1837"/>
         <v>3184681</v>
       </c>
       <c r="AP126" s="5">
-        <f>AP5+AP16+AP27+AP38+AP49+AP60+AP71+AP82+AP93+AP104+AP115</f>
+        <f t="shared" si="1837"/>
         <v>16404341</v>
       </c>
       <c r="AQ126" s="6">
-        <f>AQ5+AQ16+AQ27+AQ38+AQ49+AQ60+AQ71+AQ82+AQ93+AQ104+AQ115</f>
+        <f t="shared" si="1837"/>
         <v>350050</v>
       </c>
       <c r="AR126" s="5">
-        <f>AR5+AR16+AR27+AR38+AR49+AR60+AR71+AR82+AR93+AR104+AR115</f>
+        <f t="shared" si="1837"/>
         <v>422329</v>
       </c>
       <c r="AS126" s="5">
-        <f>AS5+AS16+AS27+AS38+AS49+AS60+AS71+AS82+AS93+AS104+AS115</f>
+        <f t="shared" si="1837"/>
         <v>0</v>
       </c>
       <c r="AT126" s="5">
-        <f>AT5+AT16+AT27+AT38+AT49+AT60+AT71+AT82+AT93+AT104+AT115</f>
+        <f t="shared" si="1837"/>
         <v>0</v>
       </c>
       <c r="AU126" s="5">
-        <f>AU5+AU16+AU27+AU38+AU49+AU60+AU71+AU82+AU93+AU104+AU115</f>
+        <f t="shared" si="1837"/>
         <v>136512</v>
       </c>
       <c r="AV126" s="5">
-        <f>AV5+AV16+AV27+AV38+AV49+AV60+AV71+AV82+AV93+AV104+AV115</f>
+        <f t="shared" si="1837"/>
         <v>1</v>
       </c>
       <c r="AW126" s="5">
-        <f>AW5+AW16+AW27+AW38+AW49+AW60+AW71+AW82+AW93+AW104+AW115</f>
+        <f t="shared" si="1837"/>
         <v>26185</v>
       </c>
       <c r="AX126" s="5">
-        <f>AX5+AX16+AX27+AX38+AX49+AX60+AX71+AX82+AX93+AX104+AX115</f>
+        <f t="shared" si="1837"/>
         <v>13613</v>
       </c>
       <c r="AY126" s="5">
-        <f>AY5+AY16+AY27+AY38+AY49+AY60+AY71+AY82+AY93+AY104+AY115</f>
+        <f t="shared" si="1837"/>
         <v>6476</v>
       </c>
       <c r="AZ126" s="5">
-        <f>AZ5+AZ16+AZ27+AZ38+AZ49+AZ60+AZ71+AZ82+AZ93+AZ104+AZ115</f>
+        <f t="shared" si="1837"/>
         <v>838247</v>
       </c>
       <c r="BA126" s="5">
-        <f>BA5+BA16+BA27+BA38+BA49+BA60+BA71+BA82+BA93+BA104+BA115</f>
+        <f t="shared" si="1837"/>
         <v>1398600</v>
       </c>
       <c r="BB126" s="6">
-        <f>BB5+BB16+BB27+BB38+BB49+BB60+BB71+BB82+BB93+BB104+BB115</f>
+        <f t="shared" si="1837"/>
         <v>980011</v>
       </c>
       <c r="BC126" s="5">
-        <f>BC5+BC16+BC27+BC38+BC49+BC60+BC71+BC82+BC93+BC104+BC115</f>
+        <f t="shared" si="1837"/>
         <v>148472</v>
       </c>
       <c r="BD126" s="5">
-        <f>BD5+BD16+BD27+BD38+BD49+BD60+BD71+BD82+BD93+BD104+BD115</f>
+        <f t="shared" si="1837"/>
         <v>147223</v>
       </c>
       <c r="BE126" s="5">
-        <f>BE5+BE16+BE27+BE38+BE49+BE60+BE71+BE82+BE93+BE104+BE115</f>
+        <f t="shared" si="1837"/>
         <v>177</v>
       </c>
       <c r="BF126" s="5">
-        <f>BF5+BF16+BF27+BF38+BF49+BF60+BF71+BF82+BF93+BF104+BF115</f>
+        <f t="shared" si="1837"/>
         <v>123484</v>
       </c>
       <c r="BG126" s="11">
-        <f>BG5+BG16+BG27+BG38+BG49+BG60+BG71+BG82+BG93+BG104+BG115</f>
+        <f t="shared" si="1837"/>
         <v>70101516</v>
       </c>
       <c r="BH126" s="16">
-        <f>BH5+BH16+BH27+BH38+BH49+BH60+BH71+BH82+BH93+BH104+BH115</f>
+        <f t="shared" si="1837"/>
         <v>107709590</v>
       </c>
       <c r="BI126" s="226">
@@ -42977,11 +42977,11 @@
         <v>156803723</v>
       </c>
       <c r="BJ126" s="5">
-        <f>BJ5+BJ16+BJ27+BJ38+BJ49+BJ60+BJ71+BJ82+BJ93+BJ104+BJ115</f>
+        <f t="shared" ref="BJ126:BK129" si="1838">BJ5+BJ16+BJ27+BJ38+BJ49+BJ60+BJ71+BJ82+BJ93+BJ104+BJ115</f>
         <v>69733266</v>
       </c>
       <c r="BK126" s="49">
-        <f>BK5+BK16+BK27+BK38+BK49+BK60+BK71+BK82+BK93+BK104+BK115</f>
+        <f t="shared" si="1838"/>
         <v>87070457</v>
       </c>
       <c r="BM126" s="30">
@@ -42995,235 +42995,235 @@
         <v>318</v>
       </c>
       <c r="C127" s="10">
-        <f>C6+C17+C28+C39+C50+C61+C72+C83+C94+C105+C116</f>
+        <f t="shared" ref="C127:AC127" si="1839">C6+C17+C28+C39+C50+C61+C72+C83+C94+C105+C116</f>
         <v>19071822</v>
       </c>
       <c r="D127" s="10">
-        <f>D6+D17+D28+D39+D50+D61+D72+D83+D94+D105+D116</f>
+        <f t="shared" si="1839"/>
         <v>5471855</v>
       </c>
       <c r="E127" s="10">
-        <f>E6+E17+E28+E39+E50+E61+E72+E83+E94+E105+E116</f>
+        <f t="shared" si="1839"/>
         <v>991280</v>
       </c>
       <c r="F127" s="10">
-        <f>F6+F17+F28+F39+F50+F61+F72+F83+F94+F105+F116</f>
+        <f t="shared" si="1839"/>
         <v>2173941</v>
       </c>
       <c r="G127" s="10">
-        <f>G6+G17+G28+G39+G50+G61+G72+G83+G94+G105+G116</f>
+        <f t="shared" si="1839"/>
         <v>1126365</v>
       </c>
       <c r="H127" s="10">
-        <f>H6+H17+H28+H39+H50+H61+H72+H83+H94+H105+H116</f>
+        <f t="shared" si="1839"/>
         <v>2203867</v>
       </c>
       <c r="I127" s="10">
-        <f>I6+I17+I28+I39+I50+I61+I72+I83+I94+I105+I116</f>
+        <f t="shared" si="1839"/>
         <v>0</v>
       </c>
       <c r="J127" s="10">
-        <f>J6+J17+J28+J39+J50+J61+J72+J83+J94+J105+J116</f>
+        <f t="shared" si="1839"/>
         <v>1506813</v>
       </c>
       <c r="K127" s="10">
-        <f>K6+K17+K28+K39+K50+K61+K72+K83+K94+K105+K116</f>
+        <f t="shared" si="1839"/>
         <v>89264.08</v>
       </c>
       <c r="L127" s="10">
-        <f>L6+L17+L28+L39+L50+L61+L72+L83+L94+L105+L116</f>
+        <f t="shared" si="1839"/>
         <v>402663</v>
       </c>
       <c r="M127" s="10">
-        <f>M6+M17+M28+M39+M50+M61+M72+M83+M94+M105+M116</f>
+        <f t="shared" si="1839"/>
         <v>1139599</v>
       </c>
       <c r="N127" s="10">
-        <f>N6+N17+N28+N39+N50+N61+N72+N83+N94+N105+N116</f>
+        <f t="shared" si="1839"/>
         <v>19839</v>
       </c>
       <c r="O127" s="10">
-        <f>O6+O17+O28+O39+O50+O61+O72+O83+O94+O105+O116</f>
+        <f t="shared" si="1839"/>
         <v>70725</v>
       </c>
       <c r="P127" s="10">
-        <f>P6+P17+P28+P39+P50+P61+P72+P83+P94+P105+P116</f>
+        <f t="shared" si="1839"/>
         <v>701418</v>
       </c>
       <c r="Q127" s="10">
-        <f>Q6+Q17+Q28+Q39+Q50+Q61+Q72+Q83+Q94+Q105+Q116</f>
+        <f t="shared" si="1839"/>
         <v>0</v>
       </c>
       <c r="R127" s="10">
-        <f>R6+R17+R28+R39+R50+R61+R72+R83+R94+R105+R116</f>
+        <f t="shared" si="1839"/>
         <v>61435</v>
       </c>
       <c r="S127" s="10">
-        <f>S6+S17+S28+S39+S50+S61+S72+S83+S94+S105+S116</f>
+        <f t="shared" si="1839"/>
         <v>783479</v>
       </c>
       <c r="T127" s="10">
-        <f>T6+T17+T28+T39+T50+T61+T72+T83+T94+T105+T116</f>
+        <f t="shared" si="1839"/>
         <v>631929</v>
       </c>
       <c r="U127" s="10">
-        <f>U6+U17+U28+U39+U50+U61+U72+U83+U94+U105+U116</f>
+        <f t="shared" si="1839"/>
         <v>0</v>
       </c>
       <c r="V127" s="10">
-        <f>V6+V17+V28+V39+V50+V61+V72+V83+V94+V105+V116</f>
+        <f t="shared" si="1839"/>
         <v>262181</v>
       </c>
       <c r="W127" s="10">
-        <f>W6+W17+W28+W39+W50+W61+W72+W83+W94+W105+W116</f>
+        <f t="shared" si="1839"/>
         <v>761</v>
       </c>
       <c r="X127" s="10">
-        <f>X6+X17+X28+X39+X50+X61+X72+X83+X94+X105+X116</f>
+        <f t="shared" si="1839"/>
         <v>306</v>
       </c>
       <c r="Y127" s="10">
-        <f>Y6+Y17+Y28+Y39+Y50+Y61+Y72+Y83+Y94+Y105+Y116</f>
+        <f t="shared" si="1839"/>
         <v>20145</v>
       </c>
       <c r="Z127" s="10">
-        <f>Z6+Z17+Z28+Z39+Z50+Z61+Z72+Z83+Z94+Z105+Z116</f>
+        <f t="shared" si="1839"/>
         <v>2328</v>
       </c>
       <c r="AA127" s="10">
-        <f>AA6+AA17+AA28+AA39+AA50+AA61+AA72+AA83+AA94+AA105+AA116</f>
+        <f t="shared" si="1839"/>
         <v>5667</v>
       </c>
       <c r="AB127" s="10">
-        <f>AB6+AB17+AB28+AB39+AB50+AB61+AB72+AB83+AB94+AB105+AB116</f>
+        <f t="shared" si="1839"/>
         <v>34758</v>
       </c>
       <c r="AC127" s="10">
-        <f>AC6+AC17+AC28+AC39+AC50+AC61+AC72+AC83+AC94+AC105+AC116</f>
+        <f t="shared" si="1839"/>
         <v>1012168</v>
       </c>
       <c r="AD127" s="121">
-        <f t="shared" si="1835"/>
+        <f t="shared" si="1836"/>
         <v>37784608.079999998</v>
       </c>
       <c r="AE127" s="6">
-        <f>AE6+AE17+AE28+AE39+AE50+AE61+AE72+AE83+AE94+AE105+AE116</f>
+        <f t="shared" ref="AE127:BH127" si="1840">AE6+AE17+AE28+AE39+AE50+AE61+AE72+AE83+AE94+AE105+AE116</f>
         <v>42738</v>
       </c>
       <c r="AF127" s="6">
-        <f>AF6+AF17+AF28+AF39+AF50+AF61+AF72+AF83+AF94+AF105+AF116</f>
+        <f t="shared" si="1840"/>
         <v>29903</v>
       </c>
       <c r="AG127" s="6">
-        <f>AG6+AG17+AG28+AG39+AG50+AG61+AG72+AG83+AG94+AG105+AG116</f>
+        <f t="shared" si="1840"/>
         <v>54750</v>
       </c>
       <c r="AH127" s="6">
-        <f>AH6+AH17+AH28+AH39+AH50+AH61+AH72+AH83+AH94+AH105+AH116</f>
+        <f t="shared" si="1840"/>
         <v>0</v>
       </c>
       <c r="AI127" s="6">
-        <f>AI6+AI17+AI28+AI39+AI50+AI61+AI72+AI83+AI94+AI105+AI116</f>
+        <f t="shared" si="1840"/>
         <v>0</v>
       </c>
       <c r="AJ127" s="6">
-        <f>AJ6+AJ17+AJ28+AJ39+AJ50+AJ61+AJ72+AJ83+AJ94+AJ105+AJ116</f>
+        <f t="shared" si="1840"/>
         <v>16906</v>
       </c>
       <c r="AK127" s="6">
-        <f>AK6+AK17+AK28+AK39+AK50+AK61+AK72+AK83+AK94+AK105+AK116</f>
+        <f t="shared" si="1840"/>
         <v>1048395</v>
       </c>
       <c r="AL127" s="6">
-        <f>AL6+AL17+AL28+AL39+AL50+AL61+AL72+AL83+AL94+AL105+AL116</f>
+        <f t="shared" si="1840"/>
         <v>833780</v>
       </c>
       <c r="AM127" s="6" t="e">
-        <f>AM6+AM17+AM28+AM39+AM50+AM61+AM72+AM83+AM94+AM105+AM116</f>
+        <f t="shared" si="1840"/>
         <v>#VALUE!</v>
       </c>
       <c r="AN127" s="6">
-        <f>AN6+AN17+AN28+AN39+AN50+AN61+AN72+AN83+AN94+AN105+AN116</f>
+        <f t="shared" si="1840"/>
         <v>99917</v>
       </c>
       <c r="AO127" s="6">
-        <f>AO6+AO17+AO28+AO39+AO50+AO61+AO72+AO83+AO94+AO105+AO116</f>
+        <f t="shared" si="1840"/>
         <v>2314529</v>
       </c>
       <c r="AP127" s="6">
-        <f>AP6+AP17+AP28+AP39+AP50+AP61+AP72+AP83+AP94+AP105+AP116</f>
+        <f t="shared" si="1840"/>
         <v>13620477.359999999</v>
       </c>
       <c r="AQ127" s="6">
-        <f>AQ6+AQ17+AQ28+AQ39+AQ50+AQ61+AQ72+AQ83+AQ94+AQ105+AQ116</f>
+        <f t="shared" si="1840"/>
         <v>110949</v>
       </c>
       <c r="AR127" s="6">
-        <f>AR6+AR17+AR28+AR39+AR50+AR61+AR72+AR83+AR94+AR105+AR116</f>
+        <f t="shared" si="1840"/>
         <v>795751</v>
       </c>
       <c r="AS127" s="6">
-        <f>AS6+AS17+AS28+AS39+AS50+AS61+AS72+AS83+AS94+AS105+AS116</f>
+        <f t="shared" si="1840"/>
         <v>0</v>
       </c>
       <c r="AT127" s="6">
-        <f>AT6+AT17+AT28+AT39+AT50+AT61+AT72+AT83+AT94+AT105+AT116</f>
+        <f t="shared" si="1840"/>
         <v>0</v>
       </c>
       <c r="AU127" s="6">
-        <f>AU6+AU17+AU28+AU39+AU50+AU61+AU72+AU83+AU94+AU105+AU116</f>
+        <f t="shared" si="1840"/>
         <v>351040</v>
       </c>
       <c r="AV127" s="6">
-        <f>AV6+AV17+AV28+AV39+AV50+AV61+AV72+AV83+AV94+AV105+AV116</f>
+        <f t="shared" si="1840"/>
         <v>0</v>
       </c>
       <c r="AW127" s="6">
-        <f>AW6+AW17+AW28+AW39+AW50+AW61+AW72+AW83+AW94+AW105+AW116</f>
+        <f t="shared" si="1840"/>
         <v>20170</v>
       </c>
       <c r="AX127" s="6">
-        <f>AX6+AX17+AX28+AX39+AX50+AX61+AX72+AX83+AX94+AX105+AX116</f>
+        <f t="shared" si="1840"/>
         <v>13783</v>
       </c>
       <c r="AY127" s="6">
-        <f>AY6+AY17+AY28+AY39+AY50+AY61+AY72+AY83+AY94+AY105+AY116</f>
+        <f t="shared" si="1840"/>
         <v>6005</v>
       </c>
       <c r="AZ127" s="10">
-        <f>AZ6+AZ17+AZ28+AZ39+AZ50+AZ61+AZ72+AZ83+AZ94+AZ105+AZ116</f>
+        <f t="shared" si="1840"/>
         <v>319855</v>
       </c>
       <c r="BA127" s="6">
-        <f>BA6+BA17+BA28+BA39+BA50+BA61+BA72+BA83+BA94+BA105+BA116</f>
+        <f t="shared" si="1840"/>
         <v>545427</v>
       </c>
       <c r="BB127" s="6">
-        <f>BB6+BB17+BB28+BB39+BB50+BB61+BB72+BB83+BB94+BB105+BB116</f>
+        <f t="shared" si="1840"/>
         <v>579121</v>
       </c>
       <c r="BC127" s="6">
-        <f>BC6+BC17+BC28+BC39+BC50+BC61+BC72+BC83+BC94+BC105+BC116</f>
+        <f t="shared" si="1840"/>
         <v>113103</v>
       </c>
       <c r="BD127" s="6">
-        <f>BD6+BD17+BD28+BD39+BD50+BD61+BD72+BD83+BD94+BD105+BD116</f>
+        <f t="shared" si="1840"/>
         <v>113075</v>
       </c>
       <c r="BE127" s="6">
-        <f>BE6+BE17+BE28+BE39+BE50+BE61+BE72+BE83+BE94+BE105+BE116</f>
+        <f t="shared" si="1840"/>
         <v>192</v>
       </c>
       <c r="BF127" s="6">
-        <f>BF6+BF17+BF28+BF39+BF50+BF61+BF72+BF83+BF94+BF105+BF116</f>
+        <f t="shared" si="1840"/>
         <v>98477</v>
       </c>
       <c r="BG127" s="10">
-        <f>BG6+BG17+BG28+BG39+BG50+BG61+BG72+BG83+BG94+BG105+BG116</f>
+        <f t="shared" si="1840"/>
         <v>1061120</v>
       </c>
       <c r="BH127" s="10">
-        <f>BH6+BH17+BH28+BH39+BH50+BH61+BH72+BH83+BH94+BH105+BH116</f>
+        <f t="shared" si="1840"/>
         <v>28037716.359999999</v>
       </c>
       <c r="BI127" s="257">
@@ -43231,15 +43231,15 @@
         <v>65822324.439999998</v>
       </c>
       <c r="BJ127" s="10">
-        <f>BJ6+BJ17+BJ28+BJ39+BJ50+BJ61+BJ72+BJ83+BJ94+BJ105+BJ116</f>
+        <f t="shared" si="1838"/>
         <v>673593</v>
       </c>
       <c r="BK127" s="10">
-        <f>BK6+BK17+BK28+BK39+BK50+BK61+BK72+BK83+BK94+BK105+BK116</f>
+        <f t="shared" si="1838"/>
         <v>65148731.439999998</v>
       </c>
       <c r="BM127" s="216">
-        <f t="shared" ref="BM127:BM132" si="1836">BK127-AD127</f>
+        <f t="shared" ref="BM127:BM132" si="1841">BK127-AD127</f>
         <v>27364123.359999999</v>
       </c>
     </row>
@@ -43248,235 +43248,235 @@
         <v>319</v>
       </c>
       <c r="C128" s="5">
-        <f>C7+C18+C29+C40+C51+C62+C73+C84+C95+C106+C117</f>
+        <f t="shared" ref="C128:AC128" si="1842">C7+C18+C29+C40+C51+C62+C73+C84+C95+C106+C117</f>
         <v>18913590</v>
       </c>
       <c r="D128" s="5">
-        <f>D7+D18+D29+D40+D51+D62+D73+D84+D95+D106+D117</f>
+        <f t="shared" si="1842"/>
         <v>3310890</v>
       </c>
       <c r="E128" s="5">
-        <f>E7+E18+E29+E40+E51+E62+E73+E84+E95+E106+E117</f>
+        <f t="shared" si="1842"/>
         <v>964984</v>
       </c>
       <c r="F128" s="5">
-        <f>F7+F18+F29+F40+F51+F62+F73+F84+F95+F106+F117</f>
+        <f t="shared" si="1842"/>
         <v>1990251</v>
       </c>
       <c r="G128" s="5">
-        <f>G7+G18+G29+G40+G51+G62+G73+G84+G95+G106+G117</f>
+        <f t="shared" si="1842"/>
         <v>1011996</v>
       </c>
       <c r="H128" s="5">
-        <f>H7+H18+H29+H40+H51+H62+H73+H84+H95+H106+H117</f>
+        <f t="shared" si="1842"/>
         <v>2053688</v>
       </c>
       <c r="I128" s="5">
-        <f>I7+I18+I29+I40+I51+I62+I73+I84+I95+I106+I117</f>
+        <f t="shared" si="1842"/>
         <v>0</v>
       </c>
       <c r="J128" s="5">
-        <f>J7+J18+J29+J40+J51+J62+J73+J84+J95+J106+J117</f>
+        <f t="shared" si="1842"/>
         <v>1361312</v>
       </c>
       <c r="K128" s="5">
-        <f>K7+K18+K29+K40+K51+K62+K73+K84+K95+K106+K117</f>
+        <f t="shared" si="1842"/>
         <v>72676</v>
       </c>
       <c r="L128" s="5">
-        <f>L7+L18+L29+L40+L51+L62+L73+L84+L95+L106+L117</f>
+        <f t="shared" si="1842"/>
         <v>389464</v>
       </c>
       <c r="M128" s="5">
-        <f>M7+M18+M29+M40+M51+M62+M73+M84+M95+M106+M117</f>
+        <f t="shared" si="1842"/>
         <v>981884</v>
       </c>
       <c r="N128" s="5">
-        <f>N7+N18+N29+N40+N51+N62+N73+N84+N95+N106+N117</f>
+        <f t="shared" si="1842"/>
         <v>19128</v>
       </c>
       <c r="O128" s="5">
-        <f>O7+O18+O29+O40+O51+O62+O73+O84+O95+O106+O117</f>
+        <f t="shared" si="1842"/>
         <v>83211</v>
       </c>
       <c r="P128" s="5">
-        <f>P7+P18+P29+P40+P51+P62+P73+P84+P95+P106+P117</f>
+        <f t="shared" si="1842"/>
         <v>761826</v>
       </c>
       <c r="Q128" s="5">
-        <f>Q7+Q18+Q29+Q40+Q51+Q62+Q73+Q84+Q95+Q106+Q117</f>
+        <f t="shared" si="1842"/>
         <v>0</v>
       </c>
       <c r="R128" s="5">
-        <f>R7+R18+R29+R40+R51+R62+R73+R84+R95+R106+R117</f>
+        <f t="shared" si="1842"/>
         <v>42055</v>
       </c>
       <c r="S128" s="5">
-        <f>S7+S18+S29+S40+S51+S62+S73+S84+S95+S106+S117</f>
+        <f t="shared" si="1842"/>
         <v>808489</v>
       </c>
       <c r="T128" s="5">
-        <f>T7+T18+T29+T40+T51+T62+T73+T84+T95+T106+T117</f>
+        <f t="shared" si="1842"/>
         <v>677056</v>
       </c>
       <c r="U128" s="5">
-        <f>U7+U18+U29+U40+U51+U62+U73+U84+U95+U106+U117</f>
+        <f t="shared" si="1842"/>
         <v>2482</v>
       </c>
       <c r="V128" s="16">
-        <f>V7+V18+V29+V40+V51+V62+V73+V84+V95+V106+V117</f>
+        <f t="shared" si="1842"/>
         <v>341684</v>
       </c>
       <c r="W128" s="5">
-        <f>W7+W18+W29+W40+W51+W62+W73+W84+W95+W106+W117</f>
+        <f t="shared" si="1842"/>
         <v>442</v>
       </c>
       <c r="X128" s="5">
-        <f>X7+X18+X29+X40+X51+X62+X73+X84+X95+X106+X117</f>
+        <f t="shared" si="1842"/>
         <v>0</v>
       </c>
       <c r="Y128" s="5">
-        <f>Y7+Y18+Y29+Y40+Y51+Y62+Y73+Y84+Y95+Y106+Y117</f>
+        <f t="shared" si="1842"/>
         <v>21603</v>
       </c>
       <c r="Z128" s="5">
-        <f>Z7+Z18+Z29+Z40+Z51+Z62+Z73+Z84+Z95+Z106+Z117</f>
+        <f t="shared" si="1842"/>
         <v>2516</v>
       </c>
       <c r="AA128" s="5">
-        <f>AA7+AA18+AA29+AA40+AA51+AA62+AA73+AA84+AA95+AA106+AA117</f>
+        <f t="shared" si="1842"/>
         <v>4111</v>
       </c>
       <c r="AB128" s="5">
-        <f>AB7+AB18+AB29+AB40+AB51+AB62+AB73+AB84+AB95+AB106+AB117</f>
+        <f t="shared" si="1842"/>
         <v>130</v>
       </c>
       <c r="AC128" s="6">
-        <f>AC7+AC18+AC29+AC40+AC51+AC62+AC73+AC84+AC95+AC106+AC117</f>
+        <f t="shared" si="1842"/>
         <v>1156080</v>
       </c>
       <c r="AD128" s="228">
-        <f t="shared" si="1835"/>
+        <f t="shared" si="1836"/>
         <v>34971548</v>
       </c>
       <c r="AE128" s="5">
-        <f>AE7+AE18+AE29+AE40+AE51+AE62+AE73+AE84+AE95+AE106+AE117</f>
+        <f t="shared" ref="AE128:BH128" si="1843">AE7+AE18+AE29+AE40+AE51+AE62+AE73+AE84+AE95+AE106+AE117</f>
         <v>37156</v>
       </c>
       <c r="AF128" s="5">
-        <f>AF7+AF18+AF29+AF40+AF51+AF62+AF73+AF84+AF95+AF106+AF117</f>
+        <f t="shared" si="1843"/>
         <v>36885</v>
       </c>
       <c r="AG128" s="5">
-        <f>AG7+AG18+AG29+AG40+AG51+AG62+AG73+AG84+AG95+AG106+AG117</f>
+        <f t="shared" si="1843"/>
         <v>147092</v>
       </c>
       <c r="AH128" s="5">
-        <f>AH7+AH18+AH29+AH40+AH51+AH62+AH73+AH84+AH95+AH106+AH117</f>
+        <f t="shared" si="1843"/>
         <v>18</v>
       </c>
       <c r="AI128" s="5">
-        <f>AI7+AI18+AI29+AI40+AI51+AI62+AI73+AI84+AI95+AI106+AI117</f>
+        <f t="shared" si="1843"/>
         <v>0</v>
       </c>
       <c r="AJ128" s="5">
-        <f>AJ7+AJ18+AJ29+AJ40+AJ51+AJ62+AJ73+AJ84+AJ95+AJ106+AJ117</f>
+        <f t="shared" si="1843"/>
         <v>18866</v>
       </c>
       <c r="AK128" s="5">
-        <f>AK7+AK18+AK29+AK40+AK51+AK62+AK73+AK84+AK95+AK106+AK117</f>
+        <f t="shared" si="1843"/>
         <v>1419487</v>
       </c>
       <c r="AL128" s="5">
-        <f>AL7+AL18+AL29+AL40+AL51+AL62+AL73+AL84+AL95+AL106+AL117</f>
+        <f t="shared" si="1843"/>
         <v>946265</v>
       </c>
       <c r="AM128" s="5">
-        <f>AM7+AM18+AM29+AM40+AM51+AM62+AM73+AM84+AM95+AM106+AM117</f>
+        <f t="shared" si="1843"/>
         <v>5570799</v>
       </c>
       <c r="AN128" s="5">
-        <f>AN7+AN18+AN29+AN40+AN51+AN62+AN73+AN84+AN95+AN106+AN117</f>
+        <f t="shared" si="1843"/>
         <v>138733</v>
       </c>
       <c r="AO128" s="16">
-        <f>AO7+AO18+AO29+AO40+AO51+AO62+AO73+AO84+AO95+AO106+AO117</f>
+        <f t="shared" si="1843"/>
         <v>2730538</v>
       </c>
       <c r="AP128" s="5">
-        <f>AP7+AP18+AP29+AP40+AP51+AP62+AP73+AP84+AP95+AP106+AP117</f>
+        <f t="shared" si="1843"/>
         <v>14017551</v>
       </c>
       <c r="AQ128" s="6">
-        <f>AQ7+AQ18+AQ29+AQ40+AQ51+AQ62+AQ73+AQ84+AQ95+AQ106+AQ117</f>
+        <f t="shared" si="1843"/>
         <v>106112</v>
       </c>
       <c r="AR128" s="5">
-        <f>AR7+AR18+AR29+AR40+AR51+AR62+AR73+AR84+AR95+AR106+AR117</f>
+        <f t="shared" si="1843"/>
         <v>837337</v>
       </c>
       <c r="AS128" s="5">
-        <f>AS7+AS18+AS29+AS40+AS51+AS62+AS73+AS84+AS95+AS106+AS117</f>
+        <f t="shared" si="1843"/>
         <v>0</v>
       </c>
       <c r="AT128" s="5">
-        <f>AT7+AT18+AT29+AT40+AT51+AT62+AT73+AT84+AT95+AT106+AT117</f>
+        <f t="shared" si="1843"/>
         <v>0</v>
       </c>
       <c r="AU128" s="5">
-        <f>AU7+AU18+AU29+AU40+AU51+AU62+AU73+AU84+AU95+AU106+AU117</f>
+        <f t="shared" si="1843"/>
         <v>323980</v>
       </c>
       <c r="AV128" s="5">
-        <f>AV7+AV18+AV29+AV40+AV51+AV62+AV73+AV84+AV95+AV106+AV117</f>
+        <f t="shared" si="1843"/>
         <v>0</v>
       </c>
       <c r="AW128" s="5">
-        <f>AW7+AW18+AW29+AW40+AW51+AW62+AW73+AW84+AW95+AW106+AW117</f>
+        <f t="shared" si="1843"/>
         <v>13633</v>
       </c>
       <c r="AX128" s="5">
-        <f>AX7+AX18+AX29+AX40+AX51+AX62+AX73+AX84+AX95+AX106+AX117</f>
+        <f t="shared" si="1843"/>
         <v>12081</v>
       </c>
       <c r="AY128" s="5">
-        <f>AY7+AY18+AY29+AY40+AY51+AY62+AY73+AY84+AY95+AY106+AY117</f>
+        <f t="shared" si="1843"/>
         <v>8388</v>
       </c>
       <c r="AZ128" s="5">
-        <f>AZ7+AZ18+AZ29+AZ40+AZ51+AZ62+AZ73+AZ84+AZ95+AZ106+AZ117</f>
+        <f t="shared" si="1843"/>
         <v>334821</v>
       </c>
       <c r="BA128" s="5">
-        <f>BA7+BA18+BA29+BA40+BA51+BA62+BA73+BA84+BA95+BA106+BA117</f>
+        <f t="shared" si="1843"/>
         <v>295710</v>
       </c>
       <c r="BB128" s="6">
-        <f>BB7+BB18+BB29+BB40+BB51+BB62+BB73+BB84+BB95+BB106+BB117</f>
+        <f t="shared" si="1843"/>
         <v>833051</v>
       </c>
       <c r="BC128" s="5">
-        <f>BC7+BC18+BC29+BC40+BC51+BC62+BC73+BC84+BC95+BC106+BC117</f>
+        <f t="shared" si="1843"/>
         <v>133465</v>
       </c>
       <c r="BD128" s="5">
-        <f>BD7+BD18+BD29+BD40+BD51+BD62+BD73+BD84+BD95+BD106+BD117</f>
+        <f t="shared" si="1843"/>
         <v>133486</v>
       </c>
       <c r="BE128" s="5">
-        <f>BE7+BE18+BE29+BE40+BE51+BE62+BE73+BE84+BE95+BE106+BE117</f>
+        <f t="shared" si="1843"/>
         <v>8</v>
       </c>
       <c r="BF128" s="5">
-        <f>BF7+BF18+BF29+BF40+BF51+BF62+BF73+BF84+BF95+BF106+BF117</f>
+        <f t="shared" si="1843"/>
         <v>129565</v>
       </c>
       <c r="BG128" s="11">
-        <f>BG7+BG18+BG29+BG40+BG51+BG62+BG73+BG84+BG95+BG106+BG117</f>
+        <f t="shared" si="1843"/>
         <v>53171462</v>
       </c>
       <c r="BH128" s="9">
-        <f>BH7+BH18+BH29+BH40+BH51+BH62+BH73+BH84+BH95+BH106+BH117</f>
+        <f t="shared" si="1843"/>
         <v>81396489</v>
       </c>
       <c r="BI128" s="221">
@@ -43484,11 +43484,11 @@
         <v>116368037</v>
       </c>
       <c r="BJ128" s="5">
-        <f>BJ7+BJ18+BJ29+BJ40+BJ51+BJ62+BJ73+BJ84+BJ95+BJ106+BJ117</f>
+        <f t="shared" si="1838"/>
         <v>51715444</v>
       </c>
       <c r="BK128" s="49">
-        <f>BK7+BK18+BK29+BK40+BK51+BK62+BK73+BK84+BK95+BK106+BK117</f>
+        <f t="shared" si="1838"/>
         <v>64652593</v>
       </c>
       <c r="BL128" s="30">
@@ -43496,7 +43496,7 @@
         <v>64652597</v>
       </c>
       <c r="BM128" s="30">
-        <f t="shared" si="1836"/>
+        <f t="shared" si="1841"/>
         <v>29681045</v>
       </c>
     </row>
@@ -43506,235 +43506,235 @@
         <v>320</v>
       </c>
       <c r="C129" s="5">
-        <f>C8+C19+C30+C41+C52+C63+C74+C85+C96+C107+C118</f>
+        <f t="shared" ref="C129:AC129" si="1844">C8+C19+C30+C41+C52+C63+C74+C85+C96+C107+C118</f>
         <v>19349259</v>
       </c>
       <c r="D129" s="5">
-        <f>D8+D19+D30+D41+D52+D63+D74+D85+D96+D107+D118</f>
+        <f t="shared" si="1844"/>
         <v>5291330</v>
       </c>
       <c r="E129" s="5">
-        <f>E8+E19+E30+E41+E52+E63+E74+E85+E96+E107+E118</f>
+        <f t="shared" si="1844"/>
         <v>968819</v>
       </c>
       <c r="F129" s="5">
-        <f>F8+F19+F30+F41+F52+F63+F74+F85+F96+F107+F118</f>
+        <f t="shared" si="1844"/>
         <v>2235585</v>
       </c>
       <c r="G129" s="5">
-        <f>G8+G19+G30+G41+G52+G63+G74+G85+G96+G107+G118</f>
+        <f t="shared" si="1844"/>
         <v>1135872</v>
       </c>
       <c r="H129" s="5">
-        <f>H8+H19+H30+H41+H52+H63+H74+H85+H96+H107+H118</f>
+        <f t="shared" si="1844"/>
         <v>2308964</v>
       </c>
       <c r="I129" s="5">
-        <f>I8+I19+I30+I41+I52+I63+I74+I85+I96+I107+I118</f>
+        <f t="shared" si="1844"/>
         <v>0</v>
       </c>
       <c r="J129" s="5">
-        <f>J8+J19+J30+J41+J52+J63+J74+J85+J96+J107+J118</f>
+        <f t="shared" si="1844"/>
         <v>1742027</v>
       </c>
       <c r="K129" s="5">
-        <f>K8+K19+K30+K41+K52+K63+K74+K85+K96+K107+K118</f>
+        <f t="shared" si="1844"/>
         <v>28490</v>
       </c>
       <c r="L129" s="5">
-        <f>L8+L19+L30+L41+L52+L63+L74+L85+L96+L107+L118</f>
+        <f t="shared" si="1844"/>
         <v>306973</v>
       </c>
       <c r="M129" s="5">
-        <f>M8+M19+M30+M41+M52+M63+M74+M85+M96+M107+M118</f>
+        <f t="shared" si="1844"/>
         <v>1048718</v>
       </c>
       <c r="N129" s="5">
-        <f>N8+N19+N30+N41+N52+N63+N74+N85+N96+N107+N118</f>
+        <f t="shared" si="1844"/>
         <v>20635</v>
       </c>
       <c r="O129" s="5">
-        <f>O8+O19+O30+O41+O52+O63+O74+O85+O96+O107+O118</f>
+        <f t="shared" si="1844"/>
         <v>63656</v>
       </c>
       <c r="P129" s="5">
-        <f>P8+P19+P30+P41+P52+P63+P74+P85+P96+P107+P118</f>
+        <f t="shared" si="1844"/>
         <v>841441</v>
       </c>
       <c r="Q129" s="5">
-        <f>Q8+Q19+Q30+Q41+Q52+Q63+Q74+Q85+Q96+Q107+Q118</f>
+        <f t="shared" si="1844"/>
         <v>0</v>
       </c>
       <c r="R129" s="5">
-        <f>R8+R19+R30+R41+R52+R63+R74+R85+R96+R107+R118</f>
+        <f t="shared" si="1844"/>
         <v>53874</v>
       </c>
       <c r="S129" s="5">
-        <f>S8+S19+S30+S41+S52+S63+S74+S85+S96+S107+S118</f>
+        <f t="shared" si="1844"/>
         <v>837190</v>
       </c>
       <c r="T129" s="5">
-        <f>T8+T19+T30+T41+T52+T63+T74+T85+T96+T107+T118</f>
+        <f t="shared" si="1844"/>
         <v>945083</v>
       </c>
       <c r="U129" s="5">
-        <f>U8+U19+U30+U41+U52+U63+U74+U85+U96+U107+U118</f>
+        <f t="shared" si="1844"/>
         <v>0</v>
       </c>
       <c r="V129" s="16">
-        <f>V8+V19+V30+V41+V52+V63+V74+V85+V96+V107+V118</f>
+        <f t="shared" si="1844"/>
         <v>373672</v>
       </c>
       <c r="W129" s="5">
-        <f>W8+W19+W30+W41+W52+W63+W74+W85+W96+W107+W118</f>
+        <f t="shared" si="1844"/>
         <v>0</v>
       </c>
       <c r="X129" s="5">
-        <f>X8+X19+X30+X41+X52+X63+X74+X85+X96+X107+X118</f>
+        <f t="shared" si="1844"/>
         <v>0</v>
       </c>
       <c r="Y129" s="5">
-        <f>Y8+Y19+Y30+Y41+Y52+Y63+Y74+Y85+Y96+Y107+Y118</f>
+        <f t="shared" si="1844"/>
         <v>118994</v>
       </c>
       <c r="Z129" s="5">
-        <f>Z8+Z19+Z30+Z41+Z52+Z63+Z74+Z85+Z96+Z107+Z118</f>
+        <f t="shared" si="1844"/>
         <v>13077</v>
       </c>
       <c r="AA129" s="5">
-        <f>AA8+AA19+AA30+AA41+AA52+AA63+AA74+AA85+AA96+AA107+AA118</f>
+        <f t="shared" si="1844"/>
         <v>17951</v>
       </c>
       <c r="AB129" s="5">
-        <f>AB8+AB19+AB30+AB41+AB52+AB63+AB74+AB85+AB96+AB107+AB118</f>
+        <f t="shared" si="1844"/>
         <v>2634</v>
       </c>
       <c r="AC129" s="6">
-        <f>AC8+AC19+AC30+AC41+AC52+AC63+AC74+AC85+AC96+AC107+AC118</f>
+        <f t="shared" si="1844"/>
         <v>996916</v>
       </c>
       <c r="AD129" s="228">
-        <f t="shared" si="1835"/>
+        <f t="shared" si="1836"/>
         <v>38701160</v>
       </c>
       <c r="AE129" s="5">
-        <f>AE8+AE19+AE30+AE41+AE52+AE63+AE74+AE85+AE96+AE107+AE118</f>
+        <f t="shared" ref="AE129:BH129" si="1845">AE8+AE19+AE30+AE41+AE52+AE63+AE74+AE85+AE96+AE107+AE118</f>
         <v>36696</v>
       </c>
       <c r="AF129" s="5">
-        <f>AF8+AF19+AF30+AF41+AF52+AF63+AF74+AF85+AF96+AF107+AF118</f>
+        <f t="shared" si="1845"/>
         <v>66462</v>
       </c>
       <c r="AG129" s="5">
-        <f>AG8+AG19+AG30+AG41+AG52+AG63+AG74+AG85+AG96+AG107+AG118</f>
+        <f t="shared" si="1845"/>
         <v>153012</v>
       </c>
       <c r="AH129" s="5">
-        <f>AH8+AH19+AH30+AH41+AH52+AH63+AH74+AH85+AH96+AH107+AH118</f>
+        <f t="shared" si="1845"/>
         <v>41</v>
       </c>
       <c r="AI129" s="5">
-        <f>AI8+AI19+AI30+AI41+AI52+AI63+AI74+AI85+AI96+AI107+AI118</f>
+        <f t="shared" si="1845"/>
         <v>0</v>
       </c>
       <c r="AJ129" s="5">
-        <f>AJ8+AJ19+AJ30+AJ41+AJ52+AJ63+AJ74+AJ85+AJ96+AJ107+AJ118</f>
+        <f t="shared" si="1845"/>
         <v>18127</v>
       </c>
       <c r="AK129" s="5">
-        <f>AK8+AK19+AK30+AK41+AK52+AK63+AK74+AK85+AK96+AK107+AK118</f>
+        <f t="shared" si="1845"/>
         <v>1347119</v>
       </c>
       <c r="AL129" s="5">
-        <f>AL8+AL19+AL30+AL41+AL52+AL63+AL74+AL85+AL96+AL107+AL118</f>
+        <f t="shared" si="1845"/>
         <v>696518</v>
       </c>
       <c r="AM129" s="5">
-        <f>AM8+AM19+AM30+AM41+AM52+AM63+AM74+AM85+AM96+AM107+AM118</f>
+        <f t="shared" si="1845"/>
         <v>8348056</v>
       </c>
       <c r="AN129" s="5">
-        <f>AN8+AN19+AN30+AN41+AN52+AN63+AN74+AN85+AN96+AN107+AN118</f>
+        <f t="shared" si="1845"/>
         <v>137235</v>
       </c>
       <c r="AO129" s="16">
-        <f>AO8+AO19+AO30+AO41+AO52+AO63+AO74+AO85+AO96+AO107+AO118</f>
+        <f t="shared" si="1845"/>
         <v>2694093</v>
       </c>
       <c r="AP129" s="5">
-        <f>AP8+AP19+AP30+AP41+AP52+AP63+AP74+AP85+AP96+AP107+AP118</f>
+        <f t="shared" si="1845"/>
         <v>14532647</v>
       </c>
       <c r="AQ129" s="6">
-        <f>AQ8+AQ19+AQ30+AQ41+AQ52+AQ63+AQ74+AQ85+AQ96+AQ107+AQ118</f>
+        <f t="shared" si="1845"/>
         <v>306431</v>
       </c>
       <c r="AR129" s="5">
-        <f>AR8+AR19+AR30+AR41+AR52+AR63+AR74+AR85+AR96+AR107+AR118</f>
+        <f t="shared" si="1845"/>
         <v>294895</v>
       </c>
       <c r="AS129" s="5">
-        <f>AS8+AS19+AS30+AS41+AS52+AS63+AS74+AS85+AS96+AS107+AS118</f>
+        <f t="shared" si="1845"/>
         <v>0</v>
       </c>
       <c r="AT129" s="5">
-        <f>AT8+AT19+AT30+AT41+AT52+AT63+AT74+AT85+AT96+AT107+AT118</f>
+        <f t="shared" si="1845"/>
         <v>0</v>
       </c>
       <c r="AU129" s="5">
-        <f>AU8+AU19+AU30+AU41+AU52+AU63+AU74+AU85+AU96+AU107+AU118</f>
+        <f t="shared" si="1845"/>
         <v>131969</v>
       </c>
       <c r="AV129" s="5">
-        <f>AV8+AV19+AV30+AV41+AV52+AV63+AV74+AV85+AV96+AV107+AV118</f>
+        <f t="shared" si="1845"/>
         <v>0</v>
       </c>
       <c r="AW129" s="5">
-        <f>AW8+AW19+AW30+AW41+AW52+AW63+AW74+AW85+AW96+AW107+AW118</f>
+        <f t="shared" si="1845"/>
         <v>11376</v>
       </c>
       <c r="AX129" s="5">
-        <f>AX8+AX19+AX30+AX41+AX52+AX63+AX74+AX85+AX96+AX107+AX118</f>
+        <f t="shared" si="1845"/>
         <v>14829</v>
       </c>
       <c r="AY129" s="5">
-        <f>AY8+AY19+AY30+AY41+AY52+AY63+AY74+AY85+AY96+AY107+AY118</f>
+        <f t="shared" si="1845"/>
         <v>5923</v>
       </c>
       <c r="AZ129" s="5">
-        <f>AZ8+AZ19+AZ30+AZ41+AZ52+AZ63+AZ74+AZ85+AZ96+AZ107+AZ118</f>
+        <f t="shared" si="1845"/>
         <v>824167</v>
       </c>
       <c r="BA129" s="5">
-        <f>BA8+BA19+BA30+BA41+BA52+BA63+BA74+BA85+BA96+BA107+BA118</f>
+        <f t="shared" si="1845"/>
         <v>1463908</v>
       </c>
       <c r="BB129" s="6">
-        <f>BB8+BB19+BB30+BB41+BB52+BB63+BB74+BB85+BB96+BB107+BB118</f>
+        <f t="shared" si="1845"/>
         <v>970948</v>
       </c>
       <c r="BC129" s="5">
-        <f>BC8+BC19+BC30+BC41+BC52+BC63+BC74+BC85+BC96+BC107+BC118</f>
+        <f t="shared" si="1845"/>
         <v>136424</v>
       </c>
       <c r="BD129" s="5">
-        <f>BD8+BD19+BD30+BD41+BD52+BD63+BD74+BD85+BD96+BD107+BD118</f>
+        <f t="shared" si="1845"/>
         <v>135458</v>
       </c>
       <c r="BE129" s="5">
-        <f>BE8+BE19+BE30+BE41+BE52+BE63+BE74+BE85+BE96+BE107+BE118</f>
+        <f t="shared" si="1845"/>
         <v>21</v>
       </c>
       <c r="BF129" s="5">
-        <f>BF8+BF19+BF30+BF41+BF52+BF63+BF74+BF85+BF96+BF107+BF118</f>
+        <f t="shared" si="1845"/>
         <v>132229</v>
       </c>
       <c r="BG129" s="5">
-        <f>BG8+BG19+BG30+BG41+BG52+BG63+BG74+BG85+BG96+BG107+BG118</f>
+        <f t="shared" si="1845"/>
         <v>57736869</v>
       </c>
       <c r="BH129" s="16">
-        <f>BH8+BH19+BH30+BH41+BH52+BH63+BH74+BH85+BH96+BH107+BH118</f>
+        <f t="shared" si="1845"/>
         <v>90195453</v>
       </c>
       <c r="BI129" s="221">
@@ -43742,11 +43742,11 @@
         <v>128896613</v>
       </c>
       <c r="BJ129" s="5">
-        <f>BJ8+BJ19+BJ30+BJ41+BJ52+BJ63+BJ74+BJ85+BJ96+BJ107+BJ118</f>
+        <f t="shared" si="1838"/>
         <v>56828349</v>
       </c>
       <c r="BK129" s="49">
-        <f>BK8+BK19+BK30+BK41+BK52+BK63+BK74+BK85+BK96+BK107+BK118</f>
+        <f t="shared" si="1838"/>
         <v>72068264</v>
       </c>
       <c r="BL129" s="30">
@@ -43754,7 +43754,7 @@
         <v>72068267</v>
       </c>
       <c r="BM129" s="30">
-        <f t="shared" si="1836"/>
+        <f t="shared" si="1841"/>
         <v>33367104</v>
       </c>
     </row>
@@ -43768,247 +43768,247 @@
         <v>277437</v>
       </c>
       <c r="D130" s="11">
-        <f t="shared" ref="D130" si="1837">D129-D127</f>
+        <f t="shared" ref="D130" si="1846">D129-D127</f>
         <v>-180525</v>
       </c>
       <c r="E130" s="11">
-        <f t="shared" ref="E130" si="1838">E129-E127</f>
+        <f t="shared" ref="E130" si="1847">E129-E127</f>
         <v>-22461</v>
       </c>
       <c r="F130" s="11">
-        <f t="shared" ref="F130" si="1839">F129-F127</f>
+        <f t="shared" ref="F130" si="1848">F129-F127</f>
         <v>61644</v>
       </c>
       <c r="G130" s="11">
-        <f t="shared" ref="G130" si="1840">G129-G127</f>
+        <f t="shared" ref="G130" si="1849">G129-G127</f>
         <v>9507</v>
       </c>
       <c r="H130" s="11">
-        <f t="shared" ref="H130" si="1841">H129-H127</f>
+        <f t="shared" ref="H130" si="1850">H129-H127</f>
         <v>105097</v>
       </c>
       <c r="I130" s="11">
-        <f t="shared" ref="I130" si="1842">I129-I127</f>
+        <f t="shared" ref="I130" si="1851">I129-I127</f>
         <v>0</v>
       </c>
       <c r="J130" s="11">
-        <f t="shared" ref="J130" si="1843">J129-J127</f>
+        <f t="shared" ref="J130" si="1852">J129-J127</f>
         <v>235214</v>
       </c>
       <c r="K130" s="11">
-        <f t="shared" ref="K130" si="1844">K129-K127</f>
+        <f t="shared" ref="K130" si="1853">K129-K127</f>
         <v>-60774.080000000002</v>
       </c>
       <c r="L130" s="11">
-        <f t="shared" ref="L130" si="1845">L129-L127</f>
+        <f t="shared" ref="L130" si="1854">L129-L127</f>
         <v>-95690</v>
       </c>
       <c r="M130" s="11">
-        <f t="shared" ref="M130" si="1846">M129-M127</f>
+        <f t="shared" ref="M130" si="1855">M129-M127</f>
         <v>-90881</v>
       </c>
       <c r="N130" s="11">
-        <f t="shared" ref="N130" si="1847">N129-N127</f>
+        <f t="shared" ref="N130" si="1856">N129-N127</f>
         <v>796</v>
       </c>
       <c r="O130" s="11">
-        <f t="shared" ref="O130" si="1848">O129-O127</f>
+        <f t="shared" ref="O130" si="1857">O129-O127</f>
         <v>-7069</v>
       </c>
       <c r="P130" s="11">
-        <f t="shared" ref="P130" si="1849">P129-P127</f>
+        <f t="shared" ref="P130" si="1858">P129-P127</f>
         <v>140023</v>
       </c>
       <c r="Q130" s="11">
-        <f t="shared" ref="Q130" si="1850">Q129-Q127</f>
+        <f t="shared" ref="Q130" si="1859">Q129-Q127</f>
         <v>0</v>
       </c>
       <c r="R130" s="11">
-        <f t="shared" ref="R130" si="1851">R129-R127</f>
+        <f t="shared" ref="R130" si="1860">R129-R127</f>
         <v>-7561</v>
       </c>
       <c r="S130" s="11">
-        <f t="shared" ref="S130" si="1852">S129-S127</f>
+        <f t="shared" ref="S130" si="1861">S129-S127</f>
         <v>53711</v>
       </c>
       <c r="T130" s="11">
-        <f t="shared" ref="T130:U130" si="1853">T129-T127</f>
+        <f t="shared" ref="T130:U130" si="1862">T129-T127</f>
         <v>313154</v>
       </c>
       <c r="U130" s="11">
-        <f t="shared" si="1853"/>
+        <f t="shared" si="1862"/>
         <v>0</v>
       </c>
       <c r="V130" s="9">
-        <f t="shared" ref="V130" si="1854">V129-V127</f>
+        <f t="shared" ref="V130" si="1863">V129-V127</f>
         <v>111491</v>
       </c>
       <c r="W130" s="11">
-        <f t="shared" ref="W130" si="1855">W129-W127</f>
+        <f t="shared" ref="W130" si="1864">W129-W127</f>
         <v>-761</v>
       </c>
       <c r="X130" s="11">
-        <f t="shared" ref="X130" si="1856">X129-X127</f>
+        <f t="shared" ref="X130" si="1865">X129-X127</f>
         <v>-306</v>
       </c>
       <c r="Y130" s="11">
-        <f t="shared" ref="Y130" si="1857">Y129-Y127</f>
+        <f t="shared" ref="Y130" si="1866">Y129-Y127</f>
         <v>98849</v>
       </c>
       <c r="Z130" s="11">
-        <f t="shared" ref="Z130" si="1858">Z129-Z127</f>
+        <f t="shared" ref="Z130" si="1867">Z129-Z127</f>
         <v>10749</v>
       </c>
       <c r="AA130" s="11">
-        <f t="shared" ref="AA130:AD130" si="1859">AA129-AA127</f>
+        <f t="shared" ref="AA130:AD130" si="1868">AA129-AA127</f>
         <v>12284</v>
       </c>
       <c r="AB130" s="11">
-        <f t="shared" ref="AB130" si="1860">AB129-AB127</f>
+        <f t="shared" ref="AB130" si="1869">AB129-AB127</f>
         <v>-32124</v>
       </c>
       <c r="AC130" s="10">
-        <f t="shared" si="1859"/>
+        <f t="shared" si="1868"/>
         <v>-15252</v>
       </c>
       <c r="AD130" s="222">
-        <f t="shared" si="1859"/>
+        <f t="shared" si="1868"/>
         <v>916551.92000000179</v>
       </c>
       <c r="AE130" s="11">
-        <f t="shared" ref="AE130" si="1861">AE129-AE127</f>
+        <f t="shared" ref="AE130" si="1870">AE129-AE127</f>
         <v>-6042</v>
       </c>
       <c r="AF130" s="11">
-        <f t="shared" ref="AF130" si="1862">AF129-AF127</f>
+        <f t="shared" ref="AF130" si="1871">AF129-AF127</f>
         <v>36559</v>
       </c>
       <c r="AG130" s="11">
-        <f t="shared" ref="AG130" si="1863">AG129-AG127</f>
+        <f t="shared" ref="AG130" si="1872">AG129-AG127</f>
         <v>98262</v>
       </c>
       <c r="AH130" s="11">
-        <f t="shared" ref="AH130" si="1864">AH129-AH127</f>
+        <f t="shared" ref="AH130" si="1873">AH129-AH127</f>
         <v>41</v>
       </c>
       <c r="AI130" s="11">
-        <f t="shared" ref="AI130" si="1865">AI129-AI127</f>
+        <f t="shared" ref="AI130" si="1874">AI129-AI127</f>
         <v>0</v>
       </c>
       <c r="AJ130" s="11">
-        <f t="shared" ref="AJ130" si="1866">AJ129-AJ127</f>
+        <f t="shared" ref="AJ130" si="1875">AJ129-AJ127</f>
         <v>1221</v>
       </c>
       <c r="AK130" s="11">
-        <f t="shared" ref="AK130" si="1867">AK129-AK127</f>
+        <f t="shared" ref="AK130" si="1876">AK129-AK127</f>
         <v>298724</v>
       </c>
       <c r="AL130" s="11">
-        <f t="shared" ref="AL130" si="1868">AL129-AL127</f>
+        <f t="shared" ref="AL130" si="1877">AL129-AL127</f>
         <v>-137262</v>
       </c>
       <c r="AM130" s="11" t="e">
-        <f t="shared" ref="AM130" si="1869">AM129-AM127</f>
+        <f t="shared" ref="AM130" si="1878">AM129-AM127</f>
         <v>#VALUE!</v>
       </c>
       <c r="AN130" s="11">
-        <f t="shared" ref="AN130" si="1870">AN129-AN127</f>
+        <f t="shared" ref="AN130" si="1879">AN129-AN127</f>
         <v>37318</v>
       </c>
       <c r="AO130" s="9">
-        <f t="shared" ref="AO130" si="1871">AO129-AO127</f>
+        <f t="shared" ref="AO130" si="1880">AO129-AO127</f>
         <v>379564</v>
       </c>
       <c r="AP130" s="11">
-        <f t="shared" ref="AP130" si="1872">AP129-AP127</f>
+        <f t="shared" ref="AP130" si="1881">AP129-AP127</f>
         <v>912169.6400000006</v>
       </c>
       <c r="AQ130" s="10">
-        <f t="shared" ref="AQ130" si="1873">AQ129-AQ127</f>
+        <f t="shared" ref="AQ130" si="1882">AQ129-AQ127</f>
         <v>195482</v>
       </c>
       <c r="AR130" s="11">
-        <f t="shared" ref="AR130" si="1874">AR129-AR127</f>
+        <f t="shared" ref="AR130" si="1883">AR129-AR127</f>
         <v>-500856</v>
       </c>
       <c r="AS130" s="11">
-        <f t="shared" ref="AS130" si="1875">AS129-AS127</f>
+        <f t="shared" ref="AS130" si="1884">AS129-AS127</f>
         <v>0</v>
       </c>
       <c r="AT130" s="11">
-        <f t="shared" ref="AT130" si="1876">AT129-AT127</f>
+        <f t="shared" ref="AT130" si="1885">AT129-AT127</f>
         <v>0</v>
       </c>
       <c r="AU130" s="11">
-        <f t="shared" ref="AU130" si="1877">AU129-AU127</f>
+        <f t="shared" ref="AU130" si="1886">AU129-AU127</f>
         <v>-219071</v>
       </c>
       <c r="AV130" s="11">
-        <f t="shared" ref="AV130" si="1878">AV129-AV127</f>
+        <f t="shared" ref="AV130" si="1887">AV129-AV127</f>
         <v>0</v>
       </c>
       <c r="AW130" s="11">
-        <f t="shared" ref="AW130" si="1879">AW129-AW127</f>
+        <f t="shared" ref="AW130" si="1888">AW129-AW127</f>
         <v>-8794</v>
       </c>
       <c r="AX130" s="11">
-        <f t="shared" ref="AX130" si="1880">AX129-AX127</f>
+        <f t="shared" ref="AX130" si="1889">AX129-AX127</f>
         <v>1046</v>
       </c>
       <c r="AY130" s="11">
-        <f t="shared" ref="AY130" si="1881">AY129-AY127</f>
+        <f t="shared" ref="AY130" si="1890">AY129-AY127</f>
         <v>-82</v>
       </c>
       <c r="AZ130" s="11">
-        <f t="shared" ref="AZ130" si="1882">AZ129-AZ127</f>
+        <f t="shared" ref="AZ130" si="1891">AZ129-AZ127</f>
         <v>504312</v>
       </c>
       <c r="BA130" s="11">
-        <f t="shared" ref="BA130" si="1883">BA129-BA127</f>
+        <f t="shared" ref="BA130" si="1892">BA129-BA127</f>
         <v>918481</v>
       </c>
       <c r="BB130" s="10">
-        <f t="shared" ref="BB130" si="1884">BB129-BB127</f>
+        <f t="shared" ref="BB130" si="1893">BB129-BB127</f>
         <v>391827</v>
       </c>
       <c r="BC130" s="11">
-        <f t="shared" ref="BC130" si="1885">BC129-BC127</f>
+        <f t="shared" ref="BC130" si="1894">BC129-BC127</f>
         <v>23321</v>
       </c>
       <c r="BD130" s="11">
-        <f t="shared" ref="BD130" si="1886">BD129-BD127</f>
+        <f t="shared" ref="BD130" si="1895">BD129-BD127</f>
         <v>22383</v>
       </c>
       <c r="BE130" s="11">
-        <f t="shared" ref="BE130" si="1887">BE129-BE127</f>
+        <f t="shared" ref="BE130" si="1896">BE129-BE127</f>
         <v>-171</v>
       </c>
       <c r="BF130" s="11">
-        <f t="shared" ref="BF130" si="1888">BF129-BF127</f>
+        <f t="shared" ref="BF130" si="1897">BF129-BF127</f>
         <v>33752</v>
       </c>
       <c r="BG130" s="11">
-        <f t="shared" ref="BG130" si="1889">BG129-BG127</f>
+        <f t="shared" ref="BG130" si="1898">BG129-BG127</f>
         <v>56675749</v>
       </c>
       <c r="BH130" s="9">
-        <f t="shared" ref="BH130:BI130" si="1890">BH129-BH127</f>
+        <f t="shared" ref="BH130:BI130" si="1899">BH129-BH127</f>
         <v>62157736.640000001</v>
       </c>
       <c r="BI130" s="222">
-        <f t="shared" si="1890"/>
+        <f t="shared" si="1899"/>
         <v>63074288.560000002</v>
       </c>
       <c r="BJ130" s="11">
-        <f t="shared" ref="BJ130" si="1891">BJ129-BJ127</f>
+        <f t="shared" ref="BJ130" si="1900">BJ129-BJ127</f>
         <v>56154756</v>
       </c>
       <c r="BK130" s="49">
-        <f t="shared" ref="BK130" si="1892">BK129-BK127</f>
+        <f t="shared" ref="BK130" si="1901">BK129-BK127</f>
         <v>6919532.5600000024</v>
       </c>
       <c r="BM130" s="30">
-        <f t="shared" si="1836"/>
+        <f t="shared" si="1841"/>
         <v>6002980.6400000006</v>
       </c>
     </row>
@@ -44022,247 +44022,247 @@
         <v>1.4546958334657276E-2</v>
       </c>
       <c r="D131" s="13">
-        <f t="shared" ref="D131" si="1893">D130/D127</f>
+        <f t="shared" ref="D131" si="1902">D130/D127</f>
         <v>-3.299155405251053E-2</v>
       </c>
       <c r="E131" s="13">
-        <f t="shared" ref="E131" si="1894">E130/E127</f>
+        <f t="shared" ref="E131" si="1903">E130/E127</f>
         <v>-2.2658582842385602E-2</v>
       </c>
       <c r="F131" s="13">
-        <f t="shared" ref="F131" si="1895">F130/F127</f>
+        <f t="shared" ref="F131" si="1904">F130/F127</f>
         <v>2.8355875343443082E-2</v>
       </c>
       <c r="G131" s="13">
-        <f t="shared" ref="G131" si="1896">G130/G127</f>
+        <f t="shared" ref="G131" si="1905">G130/G127</f>
         <v>8.4404256169181395E-3</v>
       </c>
       <c r="H131" s="13">
-        <f t="shared" ref="H131" si="1897">H130/H127</f>
+        <f t="shared" ref="H131" si="1906">H130/H127</f>
         <v>4.7687541943320533E-2</v>
       </c>
       <c r="I131" s="13" t="e">
-        <f t="shared" ref="I131" si="1898">I130/I127</f>
+        <f t="shared" ref="I131" si="1907">I130/I127</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J131" s="13">
-        <f t="shared" ref="J131" si="1899">J130/J127</f>
+        <f t="shared" ref="J131" si="1908">J130/J127</f>
         <v>0.15610032565421189</v>
       </c>
       <c r="K131" s="13">
-        <f t="shared" ref="K131" si="1900">K130/K127</f>
+        <f t="shared" ref="K131" si="1909">K130/K127</f>
         <v>-0.6808346649626591</v>
       </c>
       <c r="L131" s="13">
-        <f t="shared" ref="L131" si="1901">L130/L127</f>
+        <f t="shared" ref="L131" si="1910">L130/L127</f>
         <v>-0.23764289244355702</v>
       </c>
       <c r="M131" s="13">
-        <f t="shared" ref="M131" si="1902">M130/M127</f>
+        <f t="shared" ref="M131" si="1911">M130/M127</f>
         <v>-7.9748227227296617E-2</v>
       </c>
       <c r="N131" s="13">
-        <f t="shared" ref="N131" si="1903">N130/N127</f>
+        <f t="shared" ref="N131" si="1912">N130/N127</f>
         <v>4.0122990070064014E-2</v>
       </c>
       <c r="O131" s="13">
-        <f t="shared" ref="O131" si="1904">O130/O127</f>
+        <f t="shared" ref="O131" si="1913">O130/O127</f>
         <v>-9.9950512548603751E-2</v>
       </c>
       <c r="P131" s="13">
-        <f t="shared" ref="P131" si="1905">P130/P127</f>
+        <f t="shared" ref="P131" si="1914">P130/P127</f>
         <v>0.1996284669056112</v>
       </c>
       <c r="Q131" s="13" t="e">
-        <f t="shared" ref="Q131" si="1906">Q130/Q127</f>
+        <f t="shared" ref="Q131" si="1915">Q130/Q127</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R131" s="13">
-        <f t="shared" ref="R131" si="1907">R130/R127</f>
+        <f t="shared" ref="R131" si="1916">R130/R127</f>
         <v>-0.12307316676161797</v>
       </c>
       <c r="S131" s="13">
-        <f t="shared" ref="S131" si="1908">S130/S127</f>
+        <f t="shared" ref="S131" si="1917">S130/S127</f>
         <v>6.8554485825401829E-2</v>
       </c>
       <c r="T131" s="13">
-        <f t="shared" ref="T131:U131" si="1909">T130/T127</f>
+        <f t="shared" ref="T131:U131" si="1918">T130/T127</f>
         <v>0.4955525066898338</v>
       </c>
       <c r="U131" s="13" t="e">
-        <f t="shared" si="1909"/>
+        <f t="shared" si="1918"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V131" s="162">
-        <f t="shared" ref="V131" si="1910">V130/V127</f>
+        <f t="shared" ref="V131" si="1919">V130/V127</f>
         <v>0.42524439223284677</v>
       </c>
       <c r="W131" s="13">
-        <f t="shared" ref="W131" si="1911">W130/W127</f>
+        <f t="shared" ref="W131" si="1920">W130/W127</f>
         <v>-1</v>
       </c>
       <c r="X131" s="13">
-        <f t="shared" ref="X131" si="1912">X130/X127</f>
+        <f t="shared" ref="X131" si="1921">X130/X127</f>
         <v>-1</v>
       </c>
       <c r="Y131" s="13">
-        <f t="shared" ref="Y131" si="1913">Y130/Y127</f>
+        <f t="shared" ref="Y131" si="1922">Y130/Y127</f>
         <v>4.9068751551253413</v>
       </c>
       <c r="Z131" s="13">
-        <f t="shared" ref="Z131" si="1914">Z130/Z127</f>
+        <f t="shared" ref="Z131" si="1923">Z130/Z127</f>
         <v>4.6172680412371134</v>
       </c>
       <c r="AA131" s="13">
-        <f t="shared" ref="AA131:AD131" si="1915">AA130/AA127</f>
+        <f t="shared" ref="AA131:AD131" si="1924">AA130/AA127</f>
         <v>2.1676371978118936</v>
       </c>
       <c r="AB131" s="13">
-        <f t="shared" ref="AB131" si="1916">AB130/AB127</f>
+        <f t="shared" ref="AB131" si="1925">AB130/AB127</f>
         <v>-0.9242188848610392</v>
       </c>
       <c r="AC131" s="14">
-        <f t="shared" si="1915"/>
+        <f t="shared" si="1924"/>
         <v>-1.5068644730914236E-2</v>
       </c>
       <c r="AD131" s="223">
-        <f t="shared" si="1915"/>
+        <f t="shared" si="1924"/>
         <v>2.4257282702507307E-2</v>
       </c>
       <c r="AE131" s="13">
-        <f t="shared" ref="AE131" si="1917">AE130/AE127</f>
+        <f t="shared" ref="AE131" si="1926">AE130/AE127</f>
         <v>-0.14137301698722449</v>
       </c>
       <c r="AF131" s="13">
-        <f t="shared" ref="AF131" si="1918">AF130/AF127</f>
+        <f t="shared" ref="AF131" si="1927">AF130/AF127</f>
         <v>1.2225863625723172</v>
       </c>
       <c r="AG131" s="13">
-        <f t="shared" ref="AG131" si="1919">AG130/AG127</f>
+        <f t="shared" ref="AG131" si="1928">AG130/AG127</f>
         <v>1.7947397260273972</v>
       </c>
       <c r="AH131" s="13" t="e">
-        <f t="shared" ref="AH131" si="1920">AH130/AH127</f>
+        <f t="shared" ref="AH131" si="1929">AH130/AH127</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI131" s="13" t="e">
-        <f t="shared" ref="AI131" si="1921">AI130/AI127</f>
+        <f t="shared" ref="AI131" si="1930">AI130/AI127</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ131" s="13">
-        <f t="shared" ref="AJ131" si="1922">AJ130/AJ127</f>
+        <f t="shared" ref="AJ131" si="1931">AJ130/AJ127</f>
         <v>7.2222879451082453E-2</v>
       </c>
       <c r="AK131" s="13">
-        <f t="shared" ref="AK131" si="1923">AK130/AK127</f>
+        <f t="shared" ref="AK131" si="1932">AK130/AK127</f>
         <v>0.28493459049308706</v>
       </c>
       <c r="AL131" s="13">
-        <f t="shared" ref="AL131" si="1924">AL130/AL127</f>
+        <f t="shared" ref="AL131" si="1933">AL130/AL127</f>
         <v>-0.16462616037803737</v>
       </c>
       <c r="AM131" s="13" t="e">
-        <f t="shared" ref="AM131" si="1925">AM130/AM127</f>
+        <f t="shared" ref="AM131" si="1934">AM130/AM127</f>
         <v>#VALUE!</v>
       </c>
       <c r="AN131" s="13">
-        <f t="shared" ref="AN131" si="1926">AN130/AN127</f>
+        <f t="shared" ref="AN131" si="1935">AN130/AN127</f>
         <v>0.37348999669725874</v>
       </c>
       <c r="AO131" s="162">
-        <f t="shared" ref="AO131" si="1927">AO130/AO127</f>
+        <f t="shared" ref="AO131" si="1936">AO130/AO127</f>
         <v>0.16399189640743322</v>
       </c>
       <c r="AP131" s="13">
-        <f t="shared" ref="AP131" si="1928">AP130/AP127</f>
+        <f t="shared" ref="AP131" si="1937">AP130/AP127</f>
         <v>6.6970460424450248E-2</v>
       </c>
       <c r="AQ131" s="14">
-        <f t="shared" ref="AQ131" si="1929">AQ130/AQ127</f>
+        <f t="shared" ref="AQ131" si="1938">AQ130/AQ127</f>
         <v>1.761908624683413</v>
       </c>
       <c r="AR131" s="13">
-        <f t="shared" ref="AR131" si="1930">AR130/AR127</f>
+        <f t="shared" ref="AR131" si="1939">AR130/AR127</f>
         <v>-0.62941296963497373</v>
       </c>
       <c r="AS131" s="13" t="e">
-        <f t="shared" ref="AS131" si="1931">AS130/AS127</f>
+        <f t="shared" ref="AS131" si="1940">AS130/AS127</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT131" s="13" t="e">
-        <f t="shared" ref="AT131" si="1932">AT130/AT127</f>
+        <f t="shared" ref="AT131" si="1941">AT130/AT127</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AU131" s="13">
-        <f t="shared" ref="AU131" si="1933">AU130/AU127</f>
+        <f t="shared" ref="AU131" si="1942">AU130/AU127</f>
         <v>-0.6240627848678213</v>
       </c>
       <c r="AV131" s="13" t="e">
-        <f t="shared" ref="AV131" si="1934">AV130/AV127</f>
+        <f t="shared" ref="AV131" si="1943">AV130/AV127</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW131" s="13">
-        <f t="shared" ref="AW131" si="1935">AW130/AW127</f>
+        <f t="shared" ref="AW131" si="1944">AW130/AW127</f>
         <v>-0.43599405057015367</v>
       </c>
       <c r="AX131" s="13">
-        <f t="shared" ref="AX131" si="1936">AX130/AX127</f>
+        <f t="shared" ref="AX131" si="1945">AX130/AX127</f>
         <v>7.5890589857070298E-2</v>
       </c>
       <c r="AY131" s="13">
-        <f t="shared" ref="AY131" si="1937">AY130/AY127</f>
+        <f t="shared" ref="AY131" si="1946">AY130/AY127</f>
         <v>-1.3655287260616154E-2</v>
       </c>
       <c r="AZ131" s="13">
-        <f t="shared" ref="AZ131" si="1938">AZ130/AZ127</f>
+        <f t="shared" ref="AZ131" si="1947">AZ130/AZ127</f>
         <v>1.5766894374013225</v>
       </c>
       <c r="BA131" s="13">
-        <f t="shared" ref="BA131" si="1939">BA130/BA127</f>
+        <f t="shared" ref="BA131" si="1948">BA130/BA127</f>
         <v>1.6839668736604532</v>
       </c>
       <c r="BB131" s="14">
-        <f t="shared" ref="BB131" si="1940">BB130/BB127</f>
+        <f t="shared" ref="BB131" si="1949">BB130/BB127</f>
         <v>0.67658917566449839</v>
       </c>
       <c r="BC131" s="13">
-        <f t="shared" ref="BC131" si="1941">BC130/BC127</f>
+        <f t="shared" ref="BC131" si="1950">BC130/BC127</f>
         <v>0.20619258551939382</v>
       </c>
       <c r="BD131" s="13">
-        <f t="shared" ref="BD131" si="1942">BD130/BD127</f>
+        <f t="shared" ref="BD131" si="1951">BD130/BD127</f>
         <v>0.19794826442626576</v>
       </c>
       <c r="BE131" s="13">
-        <f t="shared" ref="BE131" si="1943">BE130/BE127</f>
+        <f t="shared" ref="BE131" si="1952">BE130/BE127</f>
         <v>-0.890625</v>
       </c>
       <c r="BF131" s="13">
-        <f t="shared" ref="BF131" si="1944">BF130/BF127</f>
+        <f t="shared" ref="BF131" si="1953">BF130/BF127</f>
         <v>0.34273992912050527</v>
       </c>
       <c r="BG131" s="13">
-        <f t="shared" ref="BG131" si="1945">BG130/BG127</f>
+        <f t="shared" ref="BG131" si="1954">BG130/BG127</f>
         <v>53.411253204161639</v>
       </c>
       <c r="BH131" s="162">
-        <f t="shared" ref="BH131:BI131" si="1946">BH130/BH127</f>
+        <f t="shared" ref="BH131:BI131" si="1955">BH130/BH127</f>
         <v>2.2169329285560972</v>
       </c>
       <c r="BI131" s="223">
-        <f t="shared" si="1946"/>
+        <f t="shared" si="1955"/>
         <v>0.95825070136341128</v>
       </c>
       <c r="BJ131" s="13">
-        <f t="shared" ref="BJ131" si="1947">BJ130/BJ127</f>
+        <f t="shared" ref="BJ131" si="1956">BJ130/BJ127</f>
         <v>83.366002912738111</v>
       </c>
       <c r="BK131" s="50">
-        <f t="shared" ref="BK131" si="1948">BK130/BK127</f>
+        <f t="shared" ref="BK131" si="1957">BK130/BK127</f>
         <v>0.10621131689068546</v>
       </c>
       <c r="BM131" s="162">
-        <f t="shared" ref="BM131" si="1949">BM130/BM127</f>
+        <f t="shared" ref="BM131" si="1958">BM130/BM127</f>
         <v>0.2193741257859905</v>
       </c>
     </row>
@@ -44276,247 +44276,247 @@
         <v>435669</v>
       </c>
       <c r="D132" s="11">
-        <f t="shared" ref="D132:BK132" si="1950">D129-D128</f>
+        <f t="shared" ref="D132:BK132" si="1959">D129-D128</f>
         <v>1980440</v>
       </c>
       <c r="E132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>3835</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>245334</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>123876</v>
       </c>
       <c r="H132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>255276</v>
       </c>
       <c r="I132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>0</v>
       </c>
       <c r="J132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>380715</v>
       </c>
       <c r="K132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-44186</v>
       </c>
       <c r="L132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-82491</v>
       </c>
       <c r="M132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>66834</v>
       </c>
       <c r="N132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>1507</v>
       </c>
       <c r="O132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-19555</v>
       </c>
       <c r="P132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>79615</v>
       </c>
       <c r="Q132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>0</v>
       </c>
       <c r="R132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>11819</v>
       </c>
       <c r="S132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>28701</v>
       </c>
       <c r="T132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>268027</v>
       </c>
       <c r="U132" s="11">
-        <f t="shared" ref="U132" si="1951">U129-U128</f>
+        <f t="shared" ref="U132" si="1960">U129-U128</f>
         <v>-2482</v>
       </c>
       <c r="V132" s="9">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>31988</v>
       </c>
       <c r="W132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-442</v>
       </c>
       <c r="X132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>0</v>
       </c>
       <c r="Y132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>97391</v>
       </c>
       <c r="Z132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>10561</v>
       </c>
       <c r="AA132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>13840</v>
       </c>
       <c r="AB132" s="11">
-        <f t="shared" ref="AB132" si="1952">AB129-AB128</f>
+        <f t="shared" ref="AB132" si="1961">AB129-AB128</f>
         <v>2504</v>
       </c>
       <c r="AC132" s="10">
-        <f t="shared" ref="AC132:AD132" si="1953">AC129-AC128</f>
+        <f t="shared" ref="AC132:AD132" si="1962">AC129-AC128</f>
         <v>-159164</v>
       </c>
       <c r="AD132" s="222">
-        <f t="shared" si="1953"/>
+        <f t="shared" si="1962"/>
         <v>3729612</v>
       </c>
       <c r="AE132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-460</v>
       </c>
       <c r="AF132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>29577</v>
       </c>
       <c r="AG132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>5920</v>
       </c>
       <c r="AH132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>23</v>
       </c>
       <c r="AI132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>0</v>
       </c>
       <c r="AJ132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-739</v>
       </c>
       <c r="AK132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-72368</v>
       </c>
       <c r="AL132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-249747</v>
       </c>
       <c r="AM132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>2777257</v>
       </c>
       <c r="AN132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-1498</v>
       </c>
       <c r="AO132" s="9">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-36445</v>
       </c>
       <c r="AP132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>515096</v>
       </c>
       <c r="AQ132" s="10">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>200319</v>
       </c>
       <c r="AR132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-542442</v>
       </c>
       <c r="AS132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>0</v>
       </c>
       <c r="AT132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>0</v>
       </c>
       <c r="AU132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-192011</v>
       </c>
       <c r="AV132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>0</v>
       </c>
       <c r="AW132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-2257</v>
       </c>
       <c r="AX132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>2748</v>
       </c>
       <c r="AY132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>-2465</v>
       </c>
       <c r="AZ132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>489346</v>
       </c>
       <c r="BA132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>1168198</v>
       </c>
       <c r="BB132" s="10">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>137897</v>
       </c>
       <c r="BC132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>2959</v>
       </c>
       <c r="BD132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>1972</v>
       </c>
       <c r="BE132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>13</v>
       </c>
       <c r="BF132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>2664</v>
       </c>
       <c r="BG132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>4565407</v>
       </c>
       <c r="BH132" s="9">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>8798964</v>
       </c>
       <c r="BI132" s="222">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>12528576</v>
       </c>
       <c r="BJ132" s="11">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>5112905</v>
       </c>
       <c r="BK132" s="49">
-        <f t="shared" si="1950"/>
+        <f t="shared" si="1959"/>
         <v>7415671</v>
       </c>
       <c r="BM132" s="30">
-        <f t="shared" si="1836"/>
+        <f t="shared" si="1841"/>
         <v>3686059</v>
       </c>
     </row>
@@ -44530,247 +44530,247 @@
         <v>2.3034706790196889E-2</v>
       </c>
       <c r="D133" s="13">
-        <f t="shared" ref="D133" si="1954">D132/D128</f>
+        <f t="shared" ref="D133" si="1963">D132/D128</f>
         <v>0.59815940728927874</v>
       </c>
       <c r="E133" s="13">
-        <f t="shared" ref="E133" si="1955">E132/E128</f>
+        <f t="shared" ref="E133" si="1964">E132/E128</f>
         <v>3.974159157043018E-3</v>
       </c>
       <c r="F133" s="13">
-        <f t="shared" ref="F133" si="1956">F132/F128</f>
+        <f t="shared" ref="F133" si="1965">F132/F128</f>
         <v>0.12326786922855459</v>
       </c>
       <c r="G133" s="13">
-        <f t="shared" ref="G133" si="1957">G132/G128</f>
+        <f t="shared" ref="G133" si="1966">G132/G128</f>
         <v>0.12240759844900573</v>
       </c>
       <c r="H133" s="13">
-        <f t="shared" ref="H133" si="1958">H132/H128</f>
+        <f t="shared" ref="H133" si="1967">H132/H128</f>
         <v>0.12430125705559948</v>
       </c>
       <c r="I133" s="13" t="e">
-        <f t="shared" ref="I133" si="1959">I132/I128</f>
+        <f t="shared" ref="I133" si="1968">I132/I128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J133" s="13">
-        <f t="shared" ref="J133" si="1960">J132/J128</f>
+        <f t="shared" ref="J133" si="1969">J132/J128</f>
         <v>0.27966770292188714</v>
       </c>
       <c r="K133" s="13">
-        <f t="shared" ref="K133" si="1961">K132/K128</f>
+        <f t="shared" ref="K133" si="1970">K132/K128</f>
         <v>-0.60798613022180636</v>
       </c>
       <c r="L133" s="13">
-        <f t="shared" ref="L133" si="1962">L132/L128</f>
+        <f t="shared" ref="L133" si="1971">L132/L128</f>
         <v>-0.21180648275578745</v>
       </c>
       <c r="M133" s="13">
-        <f t="shared" ref="M133" si="1963">M132/M128</f>
+        <f t="shared" ref="M133" si="1972">M132/M128</f>
         <v>6.8067103649718297E-2</v>
       </c>
       <c r="N133" s="13">
-        <f t="shared" ref="N133" si="1964">N132/N128</f>
+        <f t="shared" ref="N133" si="1973">N132/N128</f>
         <v>7.878502718527812E-2</v>
       </c>
       <c r="O133" s="13">
-        <f t="shared" ref="O133" si="1965">O132/O128</f>
+        <f t="shared" ref="O133" si="1974">O132/O128</f>
         <v>-0.2350049873213878</v>
       </c>
       <c r="P133" s="13">
-        <f t="shared" ref="P133" si="1966">P132/P128</f>
+        <f t="shared" ref="P133" si="1975">P132/P128</f>
         <v>0.1045054907551068</v>
       </c>
       <c r="Q133" s="13" t="e">
-        <f t="shared" ref="Q133" si="1967">Q132/Q128</f>
+        <f t="shared" ref="Q133" si="1976">Q132/Q128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R133" s="13">
-        <f t="shared" ref="R133" si="1968">R132/R128</f>
+        <f t="shared" ref="R133" si="1977">R132/R128</f>
         <v>0.28103673760551656</v>
       </c>
       <c r="S133" s="13">
-        <f t="shared" ref="S133" si="1969">S132/S128</f>
+        <f t="shared" ref="S133" si="1978">S132/S128</f>
         <v>3.5499555343362743E-2</v>
       </c>
       <c r="T133" s="13">
-        <f t="shared" ref="T133:U133" si="1970">T132/T128</f>
+        <f t="shared" ref="T133:U133" si="1979">T132/T128</f>
         <v>0.3958712425560072</v>
       </c>
       <c r="U133" s="13">
-        <f t="shared" si="1970"/>
+        <f t="shared" si="1979"/>
         <v>-1</v>
       </c>
       <c r="V133" s="162">
-        <f t="shared" ref="V133" si="1971">V132/V128</f>
+        <f t="shared" ref="V133" si="1980">V132/V128</f>
         <v>9.3618665199424023E-2</v>
       </c>
       <c r="W133" s="13">
-        <f t="shared" ref="W133" si="1972">W132/W128</f>
+        <f t="shared" ref="W133" si="1981">W132/W128</f>
         <v>-1</v>
       </c>
       <c r="X133" s="13" t="e">
-        <f t="shared" ref="X133" si="1973">X132/X128</f>
+        <f t="shared" ref="X133" si="1982">X132/X128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y133" s="13">
-        <f t="shared" ref="Y133" si="1974">Y132/Y128</f>
+        <f t="shared" ref="Y133" si="1983">Y132/Y128</f>
         <v>4.5082164514187841</v>
       </c>
       <c r="Z133" s="13">
-        <f t="shared" ref="Z133" si="1975">Z132/Z128</f>
+        <f t="shared" ref="Z133" si="1984">Z132/Z128</f>
         <v>4.1975357710651826</v>
       </c>
       <c r="AA133" s="13">
-        <f t="shared" ref="AA133:AD133" si="1976">AA132/AA128</f>
+        <f t="shared" ref="AA133:AD133" si="1985">AA132/AA128</f>
         <v>3.3665774750668938</v>
       </c>
       <c r="AB133" s="13">
-        <f t="shared" ref="AB133" si="1977">AB132/AB128</f>
+        <f t="shared" ref="AB133" si="1986">AB132/AB128</f>
         <v>19.261538461538461</v>
       </c>
       <c r="AC133" s="14">
-        <f t="shared" si="1976"/>
+        <f t="shared" si="1985"/>
         <v>-0.13767559338454086</v>
       </c>
       <c r="AD133" s="223">
-        <f t="shared" si="1976"/>
+        <f t="shared" si="1985"/>
         <v>0.10664703775766518</v>
       </c>
       <c r="AE133" s="13">
-        <f t="shared" ref="AE133" si="1978">AE132/AE128</f>
+        <f t="shared" ref="AE133" si="1987">AE132/AE128</f>
         <v>-1.2380234686187964E-2</v>
       </c>
       <c r="AF133" s="13">
-        <f t="shared" ref="AF133" si="1979">AF132/AF128</f>
+        <f t="shared" ref="AF133" si="1988">AF132/AF128</f>
         <v>0.80187067913786092</v>
       </c>
       <c r="AG133" s="13">
-        <f t="shared" ref="AG133" si="1980">AG132/AG128</f>
+        <f t="shared" ref="AG133" si="1989">AG132/AG128</f>
         <v>4.0246920294781496E-2</v>
       </c>
       <c r="AH133" s="13">
-        <f t="shared" ref="AH133" si="1981">AH132/AH128</f>
+        <f t="shared" ref="AH133" si="1990">AH132/AH128</f>
         <v>1.2777777777777777</v>
       </c>
       <c r="AI133" s="13" t="e">
-        <f t="shared" ref="AI133" si="1982">AI132/AI128</f>
+        <f t="shared" ref="AI133" si="1991">AI132/AI128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ133" s="13">
-        <f t="shared" ref="AJ133" si="1983">AJ132/AJ128</f>
+        <f t="shared" ref="AJ133" si="1992">AJ132/AJ128</f>
         <v>-3.9170995441535038E-2</v>
       </c>
       <c r="AK133" s="13">
-        <f t="shared" ref="AK133" si="1984">AK132/AK128</f>
+        <f t="shared" ref="AK133" si="1993">AK132/AK128</f>
         <v>-5.0981798353912366E-2</v>
       </c>
       <c r="AL133" s="13">
-        <f t="shared" ref="AL133" si="1985">AL132/AL128</f>
+        <f t="shared" ref="AL133" si="1994">AL132/AL128</f>
         <v>-0.2639292375814386</v>
       </c>
       <c r="AM133" s="13">
-        <f t="shared" ref="AM133" si="1986">AM132/AM128</f>
+        <f t="shared" ref="AM133" si="1995">AM132/AM128</f>
         <v>0.49853836047575939</v>
       </c>
       <c r="AN133" s="13">
-        <f t="shared" ref="AN133" si="1987">AN132/AN128</f>
+        <f t="shared" ref="AN133" si="1996">AN132/AN128</f>
         <v>-1.0797719360209899E-2</v>
       </c>
       <c r="AO133" s="162">
-        <f t="shared" ref="AO133" si="1988">AO132/AO128</f>
+        <f t="shared" ref="AO133" si="1997">AO132/AO128</f>
         <v>-1.3347186525146326E-2</v>
       </c>
       <c r="AP133" s="13">
-        <f t="shared" ref="AP133" si="1989">AP132/AP128</f>
+        <f t="shared" ref="AP133" si="1998">AP132/AP128</f>
         <v>3.6746504435760566E-2</v>
       </c>
       <c r="AQ133" s="14">
-        <f t="shared" ref="AQ133" si="1990">AQ132/AQ128</f>
+        <f t="shared" ref="AQ133" si="1999">AQ132/AQ128</f>
         <v>1.8878072225572979</v>
       </c>
       <c r="AR133" s="13">
-        <f t="shared" ref="AR133" si="1991">AR132/AR128</f>
+        <f t="shared" ref="AR133" si="2000">AR132/AR128</f>
         <v>-0.64781802308986702</v>
       </c>
       <c r="AS133" s="13" t="e">
-        <f t="shared" ref="AS133" si="1992">AS132/AS128</f>
+        <f t="shared" ref="AS133" si="2001">AS132/AS128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT133" s="13" t="e">
-        <f t="shared" ref="AT133" si="1993">AT132/AT128</f>
+        <f t="shared" ref="AT133" si="2002">AT132/AT128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AU133" s="13">
-        <f t="shared" ref="AU133" si="1994">AU132/AU128</f>
+        <f t="shared" ref="AU133" si="2003">AU132/AU128</f>
         <v>-0.59266312735354032</v>
       </c>
       <c r="AV133" s="13" t="e">
-        <f t="shared" ref="AV133" si="1995">AV132/AV128</f>
+        <f t="shared" ref="AV133" si="2004">AV132/AV128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW133" s="13">
-        <f t="shared" ref="AW133" si="1996">AW132/AW128</f>
+        <f t="shared" ref="AW133" si="2005">AW132/AW128</f>
         <v>-0.16555417002860706</v>
       </c>
       <c r="AX133" s="13">
-        <f t="shared" ref="AX133" si="1997">AX132/AX128</f>
+        <f t="shared" ref="AX133" si="2006">AX132/AX128</f>
         <v>0.22746461385646882</v>
       </c>
       <c r="AY133" s="13">
-        <f t="shared" ref="AY133" si="1998">AY132/AY128</f>
+        <f t="shared" ref="AY133" si="2007">AY132/AY128</f>
         <v>-0.29387219837863615</v>
       </c>
       <c r="AZ133" s="13">
-        <f t="shared" ref="AZ133" si="1999">AZ132/AZ128</f>
+        <f t="shared" ref="AZ133" si="2008">AZ132/AZ128</f>
         <v>1.4615152574061963</v>
       </c>
       <c r="BA133" s="13">
-        <f t="shared" ref="BA133" si="2000">BA132/BA128</f>
+        <f t="shared" ref="BA133" si="2009">BA132/BA128</f>
         <v>3.9504852727334212</v>
       </c>
       <c r="BB133" s="14">
-        <f t="shared" ref="BB133" si="2001">BB132/BB128</f>
+        <f t="shared" ref="BB133" si="2010">BB132/BB128</f>
         <v>0.16553248240503882</v>
       </c>
       <c r="BC133" s="13">
-        <f t="shared" ref="BC133" si="2002">BC132/BC128</f>
+        <f t="shared" ref="BC133" si="2011">BC132/BC128</f>
         <v>2.2170606526055521E-2</v>
       </c>
       <c r="BD133" s="13">
-        <f t="shared" ref="BD133" si="2003">BD132/BD128</f>
+        <f t="shared" ref="BD133" si="2012">BD132/BD128</f>
         <v>1.4773084817883524E-2</v>
       </c>
       <c r="BE133" s="13">
-        <f t="shared" ref="BE133" si="2004">BE132/BE128</f>
+        <f t="shared" ref="BE133" si="2013">BE132/BE128</f>
         <v>1.625</v>
       </c>
       <c r="BF133" s="13">
-        <f t="shared" ref="BF133" si="2005">BF132/BF128</f>
+        <f t="shared" ref="BF133" si="2014">BF132/BF128</f>
         <v>2.0561108324007257E-2</v>
       </c>
       <c r="BG133" s="13">
-        <f t="shared" ref="BG133" si="2006">BG132/BG128</f>
+        <f t="shared" ref="BG133" si="2015">BG132/BG128</f>
         <v>8.5861979871834263E-2</v>
       </c>
       <c r="BH133" s="162">
-        <f t="shared" ref="BH133:BI133" si="2007">BH132/BH128</f>
+        <f t="shared" ref="BH133:BI133" si="2016">BH132/BH128</f>
         <v>0.10810004347976238</v>
       </c>
       <c r="BI133" s="223">
-        <f t="shared" si="2007"/>
+        <f t="shared" si="2016"/>
         <v>0.10766337838972054</v>
       </c>
       <c r="BJ133" s="13">
-        <f t="shared" ref="BJ133" si="2008">BJ132/BJ128</f>
+        <f t="shared" ref="BJ133" si="2017">BJ132/BJ128</f>
         <v>9.8866114346809045E-2</v>
       </c>
       <c r="BK133" s="50">
-        <f t="shared" ref="BK133" si="2009">BK132/BK128</f>
+        <f t="shared" ref="BK133" si="2018">BK132/BK128</f>
         <v>0.11470028742698687</v>
       </c>
       <c r="BM133" s="14">
-        <f t="shared" ref="BM133" si="2010">BM132/BM128</f>
+        <f t="shared" ref="BM133" si="2019">BM132/BM128</f>
         <v>0.12418898997659954</v>
       </c>
     </row>
@@ -44784,247 +44784,247 @@
         <v>0.76915391816445422</v>
       </c>
       <c r="D134" s="126">
-        <f t="shared" ref="D134:BK134" si="2011">D129/D126</f>
+        <f t="shared" ref="D134:BK134" si="2020">D129/D126</f>
         <v>0.75444766283382869</v>
       </c>
       <c r="E134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>1.0006010925011128</v>
       </c>
       <c r="F134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.78226524624409732</v>
       </c>
       <c r="G134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.74542897512309825</v>
       </c>
       <c r="H134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.76483923881906191</v>
       </c>
       <c r="I134" s="126" t="e">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.84666921991965027</v>
       </c>
       <c r="K134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.63285796792394156</v>
       </c>
       <c r="L134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.73980093507495059</v>
       </c>
       <c r="M134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.84980292884045661</v>
       </c>
       <c r="N134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.70032241642626847</v>
       </c>
       <c r="O134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.79392359595405282</v>
       </c>
       <c r="P134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.90802071058277112</v>
       </c>
       <c r="Q134" s="126" t="e">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.82877976739892933</v>
       </c>
       <c r="S134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>1.0093424366531194</v>
       </c>
       <c r="T134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>1.0500817214050082</v>
       </c>
       <c r="U134" s="126" t="e">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V134" s="177">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.8896867648879534</v>
       </c>
       <c r="W134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0</v>
       </c>
       <c r="X134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0</v>
       </c>
       <c r="Y134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.68385784234845171</v>
       </c>
       <c r="Z134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.73076278290025143</v>
       </c>
       <c r="AA134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.65802785923753671</v>
       </c>
       <c r="AB134" s="126">
-        <f t="shared" ref="AB134" si="2012">AB129/AB126</f>
+        <f t="shared" ref="AB134" si="2021">AB129/AB126</f>
         <v>0.52658936425429825</v>
       </c>
       <c r="AC134" s="214">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.75101776378237484</v>
       </c>
       <c r="AD134" s="224">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.78830519320913561</v>
       </c>
       <c r="AE134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.79500844923956848</v>
       </c>
       <c r="AF134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>1.8411546346057954</v>
       </c>
       <c r="AG134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.75074700828700824</v>
       </c>
       <c r="AH134" s="126" t="e">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI134" s="126" t="e">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.76767035107779613</v>
       </c>
       <c r="AK134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.75405105711754039</v>
       </c>
       <c r="AL134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.69330108297499604</v>
       </c>
       <c r="AM134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.82410151030297674</v>
       </c>
       <c r="AN134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.69679060486512012</v>
       </c>
       <c r="AO134" s="177">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.84595380196635084</v>
       </c>
       <c r="AP134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.88590251812005127</v>
       </c>
       <c r="AQ134" s="214">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.87539208684473646</v>
       </c>
       <c r="AR134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.69825894030483349</v>
       </c>
       <c r="AS134" s="126" t="e">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT134" s="126" t="e">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.96672087435536802</v>
       </c>
       <c r="AV134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0</v>
       </c>
       <c r="AW134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.43444720259690661</v>
       </c>
       <c r="AX134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>1.0893263791963563</v>
       </c>
       <c r="AY134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.91460778258184061</v>
       </c>
       <c r="AZ134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.98320304158559468</v>
       </c>
       <c r="BA134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>1.0466952666952667</v>
       </c>
       <c r="BB134" s="214">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.99075214461878491</v>
       </c>
       <c r="BC134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.91885338649711734</v>
       </c>
       <c r="BD134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.92008721463358312</v>
       </c>
       <c r="BE134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.11864406779661017</v>
       </c>
       <c r="BF134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>1.0708188915163097</v>
       </c>
       <c r="BG134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.82361797995923514</v>
       </c>
       <c r="BH134" s="177">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.83739482250373432</v>
       </c>
       <c r="BI134" s="224">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.82202520790912603</v>
       </c>
       <c r="BJ134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.81493887006525689</v>
       </c>
       <c r="BK134" s="126">
-        <f t="shared" si="2011"/>
+        <f t="shared" si="2020"/>
         <v>0.82770053681927958</v>
       </c>
       <c r="BM134" s="126">
-        <f t="shared" ref="BM134" si="2013">BM129/BM126</f>
+        <f t="shared" ref="BM134" si="2022">BM129/BM126</f>
         <v>0.87862911639367725</v>
       </c>
     </row>
@@ -45037,243 +45037,243 @@
         <v>-5807291</v>
       </c>
       <c r="D135" s="11">
-        <f t="shared" ref="D135:BK135" si="2014">D129-D126</f>
+        <f t="shared" ref="D135:BK135" si="2023">D129-D126</f>
         <v>-1722185</v>
       </c>
       <c r="E135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>582</v>
       </c>
       <c r="F135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-622250</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-387911</v>
       </c>
       <c r="H135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-709924</v>
       </c>
       <c r="I135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>0</v>
       </c>
       <c r="J135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-315479</v>
       </c>
       <c r="K135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-16528</v>
       </c>
       <c r="L135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-107967</v>
       </c>
       <c r="M135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-185354</v>
       </c>
       <c r="N135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-8830</v>
       </c>
       <c r="O135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-16523</v>
       </c>
       <c r="P135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-85235</v>
       </c>
       <c r="Q135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>0</v>
       </c>
       <c r="R135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-11130</v>
       </c>
       <c r="S135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>7749</v>
       </c>
       <c r="T135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>45074</v>
       </c>
       <c r="U135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>0</v>
       </c>
       <c r="V135" s="9">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-46332</v>
       </c>
       <c r="W135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-1004</v>
       </c>
       <c r="X135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-406</v>
       </c>
       <c r="Y135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-55010</v>
       </c>
       <c r="Z135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-4818</v>
       </c>
       <c r="AA135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-9329</v>
       </c>
       <c r="AB135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-2368</v>
       </c>
       <c r="AC135" s="10">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-330504</v>
       </c>
       <c r="AD135" s="222">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-10392973</v>
       </c>
       <c r="AE135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-9462</v>
       </c>
       <c r="AF135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>30364</v>
       </c>
       <c r="AG135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-50801</v>
       </c>
       <c r="AH135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>41</v>
       </c>
       <c r="AI135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>0</v>
       </c>
       <c r="AJ135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-5486</v>
       </c>
       <c r="AK135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-439390</v>
       </c>
       <c r="AL135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-308122</v>
       </c>
       <c r="AM135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-1781832</v>
       </c>
       <c r="AN135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-59718</v>
       </c>
       <c r="AO135" s="9">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-490588</v>
       </c>
       <c r="AP135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-1871694</v>
       </c>
       <c r="AQ135" s="10">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-43619</v>
       </c>
       <c r="AR135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-127434</v>
       </c>
       <c r="AS135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>0</v>
       </c>
       <c r="AT135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>0</v>
       </c>
       <c r="AU135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-4543</v>
       </c>
       <c r="AV135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-1</v>
       </c>
       <c r="AW135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-14809</v>
       </c>
       <c r="AX135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>1216</v>
       </c>
       <c r="AY135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-553</v>
       </c>
       <c r="AZ135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-14080</v>
       </c>
       <c r="BA135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>65308</v>
       </c>
       <c r="BB135" s="10">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-9063</v>
       </c>
       <c r="BC135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-12048</v>
       </c>
       <c r="BD135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-11765</v>
       </c>
       <c r="BE135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-156</v>
       </c>
       <c r="BF135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>8745</v>
       </c>
       <c r="BG135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-12364647</v>
       </c>
       <c r="BH135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-17514137</v>
       </c>
       <c r="BI135" s="222">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-27907110</v>
       </c>
       <c r="BJ135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-12904917</v>
       </c>
       <c r="BK135" s="11">
-        <f t="shared" si="2014"/>
+        <f t="shared" si="2023"/>
         <v>-15002193</v>
       </c>
     </row>
@@ -45311,7 +45311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
@@ -45345,58 +45345,58 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="299" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="303" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="270" t="s">
+      <c r="D3" s="303" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="270"/>
-      <c r="F3" s="268" t="str">
+      <c r="E3" s="303"/>
+      <c r="F3" s="305" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G3" s="270" t="s">
+      <c r="G3" s="303" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="268" t="str">
+      <c r="H3" s="305" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="I3" s="268" t="str">
+      <c r="I3" s="305" t="str">
         <f>'PU Wise OWE'!$B$6</f>
         <v>BP to end  Dec-21</v>
       </c>
-      <c r="J3" s="268" t="str">
+      <c r="J3" s="305" t="str">
         <f>'PU Wise OWE'!$B$8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="K3" s="267" t="s">
+      <c r="K3" s="306" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="267"/>
-      <c r="M3" s="267" t="s">
+      <c r="L3" s="306"/>
+      <c r="M3" s="306" t="s">
         <v>147</v>
       </c>
-      <c r="N3" s="267"/>
-      <c r="O3" s="291" t="s">
+      <c r="N3" s="306"/>
+      <c r="O3" s="279" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
-      <c r="B4" s="272"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="269"/>
-      <c r="J4" s="269"/>
+      <c r="B4" s="300"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="304"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
       <c r="K4" s="19" t="s">
         <v>145</v>
       </c>
@@ -45409,7 +45409,7 @@
       <c r="N4" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="O4" s="291"/>
+      <c r="O4" s="279"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
@@ -45627,58 +45627,58 @@
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="273" t="s">
+      <c r="B11" s="301" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="277" t="s">
+      <c r="C11" s="298" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="277" t="s">
+      <c r="D11" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="277"/>
-      <c r="F11" s="275" t="str">
+      <c r="E11" s="298"/>
+      <c r="F11" s="287" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G11" s="277" t="s">
+      <c r="G11" s="298" t="s">
         <v>330</v>
       </c>
-      <c r="H11" s="275" t="str">
+      <c r="H11" s="287" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="I11" s="275" t="str">
+      <c r="I11" s="287" t="str">
         <f>'PU Wise OWE'!$B$6</f>
         <v>BP to end  Dec-21</v>
       </c>
-      <c r="J11" s="275" t="str">
+      <c r="J11" s="287" t="str">
         <f>'PU Wise OWE'!$B$8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="K11" s="278" t="s">
+      <c r="K11" s="295" t="s">
         <v>206</v>
       </c>
-      <c r="L11" s="278"/>
-      <c r="M11" s="278" t="s">
+      <c r="L11" s="295"/>
+      <c r="M11" s="295" t="s">
         <v>147</v>
       </c>
-      <c r="N11" s="278"/>
-      <c r="O11" s="292" t="s">
+      <c r="N11" s="295"/>
+      <c r="O11" s="280" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="274"/>
-      <c r="C12" s="276"/>
-      <c r="D12" s="276"/>
-      <c r="E12" s="276"/>
-      <c r="F12" s="276"/>
-      <c r="G12" s="276"/>
-      <c r="H12" s="276"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="276"/>
+      <c r="B12" s="302"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="288"/>
+      <c r="F12" s="288"/>
+      <c r="G12" s="288"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="288"/>
       <c r="K12" s="64" t="s">
         <v>145</v>
       </c>
@@ -45691,7 +45691,7 @@
       <c r="N12" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="O12" s="292"/>
+      <c r="O12" s="280"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
@@ -46565,57 +46565,57 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="279" t="s">
+      <c r="B32" s="296" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="284" t="s">
+      <c r="C32" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="D32" s="284" t="s">
+      <c r="D32" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="284"/>
-      <c r="F32" s="281" t="str">
+      <c r="E32" s="291"/>
+      <c r="F32" s="289" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G32" s="284" t="s">
+      <c r="G32" s="291" t="s">
         <v>330</v>
       </c>
-      <c r="H32" s="281" t="str">
+      <c r="H32" s="289" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="I32" s="281" t="str">
+      <c r="I32" s="289" t="str">
         <f>'PU Wise OWE'!$B$6</f>
         <v>BP to end  Dec-21</v>
       </c>
-      <c r="J32" s="281" t="str">
+      <c r="J32" s="289" t="str">
         <f>'PU Wise OWE'!$B$8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="K32" s="283" t="s">
+      <c r="K32" s="267" t="s">
         <v>206</v>
       </c>
-      <c r="L32" s="283"/>
-      <c r="M32" s="283" t="s">
+      <c r="L32" s="267"/>
+      <c r="M32" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="N32" s="283"/>
-      <c r="O32" s="285" t="s">
+      <c r="N32" s="267"/>
+      <c r="O32" s="268" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="280"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="282"/>
-      <c r="F33" s="282"/>
-      <c r="G33" s="282"/>
-      <c r="H33" s="282"/>
-      <c r="I33" s="282"/>
-      <c r="J33" s="282"/>
+      <c r="B33" s="297"/>
+      <c r="C33" s="290"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="290"/>
+      <c r="J33" s="290"/>
       <c r="K33" s="79" t="s">
         <v>145</v>
       </c>
@@ -46628,7 +46628,7 @@
       <c r="N33" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O33" s="285"/>
+      <c r="O33" s="268"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="84" t="s">
@@ -46852,57 +46852,57 @@
       </c>
     </row>
     <row r="40" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="285" t="s">
+      <c r="B40" s="268" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="284" t="s">
+      <c r="C40" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="D40" s="284" t="s">
+      <c r="D40" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="286"/>
-      <c r="F40" s="281" t="str">
+      <c r="E40" s="292"/>
+      <c r="F40" s="289" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G40" s="284" t="s">
+      <c r="G40" s="291" t="s">
         <v>330</v>
       </c>
-      <c r="H40" s="281" t="str">
+      <c r="H40" s="289" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="I40" s="281" t="str">
+      <c r="I40" s="289" t="str">
         <f>'PU Wise OWE'!$B$6</f>
         <v>BP to end  Dec-21</v>
       </c>
-      <c r="J40" s="281" t="str">
+      <c r="J40" s="289" t="str">
         <f>'PU Wise OWE'!$B$8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="K40" s="283" t="s">
+      <c r="K40" s="267" t="s">
         <v>206</v>
       </c>
-      <c r="L40" s="283"/>
-      <c r="M40" s="283" t="s">
+      <c r="L40" s="267"/>
+      <c r="M40" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="N40" s="283"/>
-      <c r="O40" s="285" t="s">
+      <c r="N40" s="267"/>
+      <c r="O40" s="268" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="41" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="285"/>
-      <c r="C41" s="282"/>
-      <c r="D41" s="282"/>
-      <c r="E41" s="287"/>
-      <c r="F41" s="282"/>
-      <c r="G41" s="282"/>
-      <c r="H41" s="282"/>
-      <c r="I41" s="282"/>
-      <c r="J41" s="282"/>
+      <c r="B41" s="268"/>
+      <c r="C41" s="290"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="293"/>
+      <c r="F41" s="290"/>
+      <c r="G41" s="290"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
       <c r="K41" s="79" t="s">
         <v>145</v>
       </c>
@@ -46915,7 +46915,7 @@
       <c r="N41" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O41" s="285"/>
+      <c r="O41" s="268"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="27" t="s">
@@ -46928,7 +46928,7 @@
         <f t="shared" ref="D42:D50" si="32">C42/$C$7</f>
         <v>3.4979489665528697E-2</v>
       </c>
-      <c r="E42" s="287"/>
+      <c r="E42" s="293"/>
       <c r="F42" s="21">
         <f>SUM(F43:F48)</f>
         <v>422.93</v>
@@ -46981,7 +46981,7 @@
         <f t="shared" si="32"/>
         <v>2.5185437214841119E-3</v>
       </c>
-      <c r="E43" s="287"/>
+      <c r="E43" s="293"/>
       <c r="F43" s="21">
         <f>ROUND('PU Wise OWE'!$AK$82/10000,2)</f>
         <v>50.81</v>
@@ -47034,7 +47034,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="E44" s="287"/>
+      <c r="E44" s="293"/>
       <c r="F44" s="21">
         <f>ROUND('PU Wise OWE'!$AP$82/10000,2)</f>
         <v>92.56</v>
@@ -47085,7 +47085,7 @@
         <f t="shared" si="32"/>
         <v>1.4632879722589252E-2</v>
       </c>
-      <c r="E45" s="287"/>
+      <c r="E45" s="293"/>
       <c r="F45" s="21">
         <f>ROUND('PU Wise OWE'!$AR$82/10000,2)</f>
         <v>42.23</v>
@@ -47138,7 +47138,7 @@
         <f t="shared" si="32"/>
         <v>5.9721079916756304E-3</v>
       </c>
-      <c r="E46" s="287"/>
+      <c r="E46" s="293"/>
       <c r="F46" s="21">
         <f>ROUND('PU Wise OWE'!$AU$82/10000,2)</f>
         <v>13.65</v>
@@ -47191,7 +47191,7 @@
         <f t="shared" si="32"/>
         <v>6.9774789236647173E-3</v>
       </c>
-      <c r="E47" s="287"/>
+      <c r="E47" s="293"/>
       <c r="F47" s="21">
         <f>ROUND('PU Wise OWE'!$AZ$82/10000,2)</f>
         <v>83.82</v>
@@ -47244,7 +47244,7 @@
         <f t="shared" si="32"/>
         <v>4.878479306114983E-3</v>
       </c>
-      <c r="E48" s="287"/>
+      <c r="E48" s="293"/>
       <c r="F48" s="21">
         <f>ROUND('PU Wise OWE'!$BA$82/10000,2)</f>
         <v>139.86000000000001</v>
@@ -47297,7 +47297,7 @@
         <f t="shared" si="32"/>
         <v>8.4865585999506263E-2</v>
       </c>
-      <c r="E49" s="287"/>
+      <c r="E49" s="293"/>
       <c r="F49" s="21">
         <f>ROUND('PU Wise OWE'!$AM$82/10000,2)-48.84</f>
         <v>865.18</v>
@@ -47351,7 +47351,7 @@
         <f t="shared" si="32"/>
         <v>0.11984507566503497</v>
       </c>
-      <c r="E50" s="288"/>
+      <c r="E50" s="294"/>
       <c r="F50" s="26">
         <f>F42+F49</f>
         <v>1288.1099999999999</v>
@@ -47410,7 +47410,7 @@
         <f t="shared" ref="D53:D57" si="51">C53/$C$7</f>
         <v>2.4159600716806451E-2</v>
       </c>
-      <c r="E53" s="298"/>
+      <c r="E53" s="284"/>
       <c r="F53" s="22">
         <f>ROUND('PU Wise OWE'!$AK$126/10000,2)-F43</f>
         <v>127.84</v>
@@ -47463,7 +47463,7 @@
         <f t="shared" si="51"/>
         <v>1.5535922824350441E-2</v>
       </c>
-      <c r="E54" s="299"/>
+      <c r="E54" s="285"/>
       <c r="F54" s="22">
         <f>ROUND('PU Wise OWE'!$AL$126/10000,2)</f>
         <v>100.46</v>
@@ -47517,7 +47517,7 @@
         <f t="shared" si="51"/>
         <v>3.9695523541156887E-2</v>
       </c>
-      <c r="E55" s="300"/>
+      <c r="E55" s="286"/>
       <c r="F55" s="74">
         <f t="shared" ref="F55:J55" si="60">SUM(F53:F54)</f>
         <v>228.3</v>
@@ -47634,7 +47634,7 @@
         <f t="shared" ref="D60:D64" si="69">C60/$C$7</f>
         <v>1.0245574001568173E-2</v>
       </c>
-      <c r="E60" s="295"/>
+      <c r="E60" s="281"/>
       <c r="F60" s="22">
         <f>ROUND('PU Wise OWE'!$AM$60/10000,2)</f>
         <v>80.11</v>
@@ -47687,7 +47687,7 @@
         <f t="shared" si="69"/>
         <v>2.7193620883063595E-3</v>
       </c>
-      <c r="E61" s="296"/>
+      <c r="E61" s="282"/>
       <c r="F61" s="22">
         <f>ROUND('PU Wise OWE'!$AM$93/10000,2)</f>
         <v>18.62</v>
@@ -47740,7 +47740,7 @@
         <f t="shared" si="69"/>
         <v>1.265027801192375E-3</v>
       </c>
-      <c r="E62" s="296"/>
+      <c r="E62" s="282"/>
       <c r="F62" s="22">
         <f>ROUND('PU Wise OWE'!$AN$16/10000,2)</f>
         <v>14.8</v>
@@ -47793,7 +47793,7 @@
         <f t="shared" si="69"/>
         <v>2.0977205196718855E-4</v>
       </c>
-      <c r="E63" s="296"/>
+      <c r="E63" s="282"/>
       <c r="F63" s="22">
         <f>ROUND('PU Wise OWE'!$AN$60/10000,2)</f>
         <v>3.34</v>
@@ -47847,7 +47847,7 @@
         <f t="shared" si="69"/>
         <v>1.4439735943034097E-2</v>
       </c>
-      <c r="E64" s="297"/>
+      <c r="E64" s="283"/>
       <c r="F64" s="26">
         <f>SUM(F60:F63)</f>
         <v>116.87</v>
@@ -48280,57 +48280,57 @@
       <c r="O76" s="213"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="305" t="s">
+      <c r="B77" s="272" t="s">
         <v>311</v>
       </c>
-      <c r="C77" s="285" t="s">
+      <c r="C77" s="268" t="s">
         <v>296</v>
       </c>
-      <c r="D77" s="285" t="s">
+      <c r="D77" s="268" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="285"/>
-      <c r="F77" s="306" t="str">
+      <c r="E77" s="268"/>
+      <c r="F77" s="269" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G77" s="285" t="s">
+      <c r="G77" s="268" t="s">
         <v>332</v>
       </c>
-      <c r="H77" s="306" t="str">
+      <c r="H77" s="269" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="I77" s="306" t="str">
+      <c r="I77" s="269" t="str">
         <f>'PU Wise OWE'!$B$6</f>
         <v>BP to end  Dec-21</v>
       </c>
-      <c r="J77" s="306" t="str">
+      <c r="J77" s="269" t="str">
         <f>'PU Wise OWE'!$B$8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="K77" s="283" t="s">
+      <c r="K77" s="267" t="s">
         <v>206</v>
       </c>
-      <c r="L77" s="283"/>
-      <c r="M77" s="283" t="s">
+      <c r="L77" s="267"/>
+      <c r="M77" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="N77" s="283"/>
-      <c r="O77" s="285" t="s">
+      <c r="N77" s="267"/>
+      <c r="O77" s="268" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="78" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="305"/>
-      <c r="C78" s="285"/>
-      <c r="D78" s="285"/>
-      <c r="E78" s="285"/>
-      <c r="F78" s="285"/>
-      <c r="G78" s="285"/>
-      <c r="H78" s="285"/>
-      <c r="I78" s="285"/>
-      <c r="J78" s="285"/>
+      <c r="B78" s="272"/>
+      <c r="C78" s="268"/>
+      <c r="D78" s="268"/>
+      <c r="E78" s="268"/>
+      <c r="F78" s="268"/>
+      <c r="G78" s="268"/>
+      <c r="H78" s="268"/>
+      <c r="I78" s="268"/>
+      <c r="J78" s="268"/>
       <c r="K78" s="79" t="s">
         <v>145</v>
       </c>
@@ -48343,7 +48343,7 @@
       <c r="N78" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O78" s="285"/>
+      <c r="O78" s="268"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="23" t="s">
@@ -48781,58 +48781,58 @@
       <c r="O89" s="178"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="303" t="s">
+      <c r="B90" s="270" t="s">
         <v>253</v>
       </c>
-      <c r="C90" s="289" t="s">
+      <c r="C90" s="273" t="s">
         <v>296</v>
       </c>
-      <c r="D90" s="289" t="s">
+      <c r="D90" s="273" t="s">
         <v>173</v>
       </c>
-      <c r="E90" s="289"/>
-      <c r="F90" s="293" t="s">
+      <c r="E90" s="273"/>
+      <c r="F90" s="277" t="s">
         <v>333</v>
       </c>
-      <c r="G90" s="289" t="s">
+      <c r="G90" s="273" t="s">
         <v>330</v>
       </c>
-      <c r="H90" s="293" t="s">
+      <c r="H90" s="277" t="s">
         <v>321</v>
       </c>
-      <c r="I90" s="293" t="s">
+      <c r="I90" s="277" t="s">
         <v>322</v>
       </c>
-      <c r="J90" s="289" t="s">
+      <c r="J90" s="273" t="s">
         <v>205</v>
       </c>
-      <c r="K90" s="301" t="s">
+      <c r="K90" s="275" t="s">
         <v>147</v>
       </c>
-      <c r="L90" s="301"/>
-      <c r="M90" s="302" t="s">
+      <c r="L90" s="275"/>
+      <c r="M90" s="276" t="s">
         <v>331</v>
       </c>
       <c r="N90" s="191"/>
       <c r="O90" s="196"/>
     </row>
     <row r="91" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="304"/>
-      <c r="C91" s="290"/>
-      <c r="D91" s="290"/>
-      <c r="E91" s="290"/>
-      <c r="F91" s="290"/>
-      <c r="G91" s="290"/>
-      <c r="H91" s="290"/>
-      <c r="I91" s="294"/>
-      <c r="J91" s="290"/>
+      <c r="B91" s="271"/>
+      <c r="C91" s="274"/>
+      <c r="D91" s="274"/>
+      <c r="E91" s="274"/>
+      <c r="F91" s="274"/>
+      <c r="G91" s="274"/>
+      <c r="H91" s="274"/>
+      <c r="I91" s="278"/>
+      <c r="J91" s="274"/>
       <c r="K91" s="79" t="s">
         <v>145</v>
       </c>
       <c r="L91" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="M91" s="302"/>
+      <c r="M91" s="276"/>
       <c r="N91" s="191"/>
       <c r="O91" s="196"/>
     </row>
@@ -49526,35 +49526,35 @@
     </row>
     <row r="107" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="251"/>
-      <c r="C107" s="289" t="s">
+      <c r="C107" s="273" t="s">
         <v>296</v>
       </c>
-      <c r="D107" s="289" t="s">
+      <c r="D107" s="273" t="s">
         <v>173</v>
       </c>
-      <c r="E107" s="289"/>
-      <c r="F107" s="293" t="str">
+      <c r="E107" s="273"/>
+      <c r="F107" s="277" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="G107" s="289" t="s">
+      <c r="G107" s="273" t="s">
         <v>330</v>
       </c>
-      <c r="H107" s="293" t="str">
+      <c r="H107" s="277" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="I107" s="293" t="s">
+      <c r="I107" s="277" t="s">
         <v>322</v>
       </c>
-      <c r="J107" s="289" t="s">
+      <c r="J107" s="273" t="s">
         <v>205</v>
       </c>
-      <c r="K107" s="301" t="s">
+      <c r="K107" s="275" t="s">
         <v>147</v>
       </c>
-      <c r="L107" s="301"/>
-      <c r="M107" s="302" t="s">
+      <c r="L107" s="275"/>
+      <c r="M107" s="276" t="s">
         <v>331</v>
       </c>
       <c r="N107" s="191"/>
@@ -49564,21 +49564,21 @@
       <c r="B108" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C108" s="290"/>
-      <c r="D108" s="290"/>
-      <c r="E108" s="290"/>
-      <c r="F108" s="290"/>
-      <c r="G108" s="290"/>
-      <c r="H108" s="290"/>
-      <c r="I108" s="294"/>
-      <c r="J108" s="290"/>
+      <c r="C108" s="274"/>
+      <c r="D108" s="274"/>
+      <c r="E108" s="274"/>
+      <c r="F108" s="274"/>
+      <c r="G108" s="274"/>
+      <c r="H108" s="274"/>
+      <c r="I108" s="278"/>
+      <c r="J108" s="274"/>
       <c r="K108" s="79" t="s">
         <v>145</v>
       </c>
       <c r="L108" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="M108" s="302"/>
+      <c r="M108" s="276"/>
       <c r="N108" s="191"/>
       <c r="O108" s="196"/>
     </row>
@@ -49994,32 +49994,47 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E40:E50"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="H40:H41"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="O11:O12"/>
@@ -50036,47 +50051,32 @@
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E40:E50"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="H77:H78"/>
   </mergeCells>
   <conditionalFormatting sqref="O109:O112 O115:O118 O65">
     <cfRule type="cellIs" dxfId="20" priority="4" operator="greaterThan">
@@ -50144,62 +50144,62 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="299" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="303" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="268" t="str">
+      <c r="D3" s="305" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="E3" s="270" t="s">
+      <c r="E3" s="303" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="270"/>
-      <c r="G3" s="317" t="str">
+      <c r="F3" s="303"/>
+      <c r="G3" s="318" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="303" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="268" t="str">
+      <c r="I3" s="305" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J3" s="270" t="s">
+      <c r="J3" s="303" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="267" t="s">
+      <c r="K3" s="306" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="267"/>
-      <c r="M3" s="291" t="s">
+      <c r="L3" s="306"/>
+      <c r="M3" s="279" t="s">
         <v>308</v>
       </c>
-      <c r="N3" s="320"/>
+      <c r="N3" s="314"/>
     </row>
     <row r="4" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
-      <c r="B4" s="272"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="269"/>
-      <c r="J4" s="269"/>
+      <c r="B4" s="300"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="304"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="300"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
       <c r="K4" s="19" t="s">
         <v>145</v>
       </c>
       <c r="L4" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="M4" s="291"/>
-      <c r="N4" s="320"/>
+      <c r="M4" s="279"/>
+      <c r="N4" s="314"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
@@ -50385,62 +50385,62 @@
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="277"/>
-      <c r="C11" s="277" t="s">
+      <c r="B11" s="298"/>
+      <c r="C11" s="298" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="275" t="str">
+      <c r="D11" s="287" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="E11" s="277" t="s">
+      <c r="E11" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="277"/>
-      <c r="G11" s="318" t="str">
+      <c r="F11" s="298"/>
+      <c r="G11" s="319" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="H11" s="277" t="s">
+      <c r="H11" s="298" t="s">
         <v>303</v>
       </c>
-      <c r="I11" s="275" t="str">
+      <c r="I11" s="287" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J11" s="277" t="s">
+      <c r="J11" s="298" t="s">
         <v>205</v>
       </c>
-      <c r="K11" s="278" t="s">
+      <c r="K11" s="295" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="278"/>
-      <c r="M11" s="292" t="s">
+      <c r="L11" s="295"/>
+      <c r="M11" s="280" t="s">
         <v>308</v>
       </c>
-      <c r="N11" s="320" t="s">
+      <c r="N11" s="314" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="276"/>
-      <c r="C12" s="276"/>
-      <c r="D12" s="276"/>
-      <c r="E12" s="276"/>
-      <c r="F12" s="276"/>
-      <c r="G12" s="319"/>
-      <c r="H12" s="276"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="276"/>
+      <c r="B12" s="288"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="288"/>
+      <c r="F12" s="288"/>
+      <c r="G12" s="320"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="288"/>
       <c r="K12" s="64" t="s">
         <v>145</v>
       </c>
       <c r="L12" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="M12" s="292"/>
-      <c r="N12" s="320"/>
+      <c r="M12" s="280"/>
+      <c r="N12" s="314"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
@@ -51188,61 +51188,61 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="285"/>
-      <c r="C32" s="284" t="s">
+      <c r="B32" s="268"/>
+      <c r="C32" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="D32" s="281" t="str">
+      <c r="D32" s="289" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="E32" s="284" t="s">
+      <c r="E32" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="284"/>
+      <c r="F32" s="291"/>
       <c r="G32" s="315" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="H32" s="284" t="s">
+      <c r="H32" s="291" t="s">
         <v>303</v>
       </c>
-      <c r="I32" s="281" t="str">
+      <c r="I32" s="289" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J32" s="284" t="s">
+      <c r="J32" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="K32" s="283" t="s">
+      <c r="K32" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="L32" s="283"/>
-      <c r="M32" s="285" t="s">
+      <c r="L32" s="267"/>
+      <c r="M32" s="268" t="s">
         <v>308</v>
       </c>
-      <c r="N32" s="320" t="s">
+      <c r="N32" s="314" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="285"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="282"/>
-      <c r="F33" s="282"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="290"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
       <c r="G33" s="316"/>
-      <c r="H33" s="282"/>
-      <c r="I33" s="282"/>
-      <c r="J33" s="282"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="290"/>
+      <c r="J33" s="290"/>
       <c r="K33" s="79" t="s">
         <v>145</v>
       </c>
       <c r="L33" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="M33" s="285"/>
-      <c r="N33" s="320"/>
+      <c r="M33" s="268"/>
+      <c r="N33" s="314"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="84" t="s">
@@ -51288,7 +51288,7 @@
         <f t="shared" ref="M34:M37" si="11">I34/G34</f>
         <v>1.2539489671931956</v>
       </c>
-      <c r="N34" s="321"/>
+      <c r="N34" s="317"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="84" t="s">
@@ -51334,7 +51334,7 @@
         <f t="shared" si="11"/>
         <v>0.75073601570166837</v>
       </c>
-      <c r="N35" s="321"/>
+      <c r="N35" s="317"/>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="84" t="s">
@@ -51380,7 +51380,7 @@
         <f t="shared" si="11"/>
         <v>0.76694915254237295</v>
       </c>
-      <c r="N36" s="321"/>
+      <c r="N36" s="317"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="25" t="s">
@@ -51437,63 +51437,63 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="285" t="s">
+      <c r="B40" s="268" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="284" t="s">
+      <c r="C40" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="D40" s="281" t="str">
+      <c r="D40" s="289" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="E40" s="284" t="s">
+      <c r="E40" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="284"/>
+      <c r="F40" s="291"/>
       <c r="G40" s="315" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="H40" s="284" t="s">
+      <c r="H40" s="291" t="s">
         <v>295</v>
       </c>
-      <c r="I40" s="281" t="str">
+      <c r="I40" s="289" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J40" s="284" t="s">
+      <c r="J40" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="K40" s="283" t="s">
+      <c r="K40" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="L40" s="283"/>
-      <c r="M40" s="285" t="s">
+      <c r="L40" s="267"/>
+      <c r="M40" s="268" t="s">
         <v>308</v>
       </c>
-      <c r="N40" s="320" t="s">
+      <c r="N40" s="314" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="285"/>
-      <c r="C41" s="282"/>
-      <c r="D41" s="282"/>
-      <c r="E41" s="282"/>
-      <c r="F41" s="282"/>
+      <c r="B41" s="268"/>
+      <c r="C41" s="290"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="290"/>
+      <c r="F41" s="290"/>
       <c r="G41" s="316"/>
-      <c r="H41" s="282"/>
-      <c r="I41" s="282"/>
-      <c r="J41" s="282"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
       <c r="K41" s="79" t="s">
         <v>145</v>
       </c>
       <c r="L41" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="M41" s="285"/>
-      <c r="N41" s="320"/>
+      <c r="M41" s="268"/>
+      <c r="N41" s="314"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="27" t="s">
@@ -51877,7 +51877,7 @@
         <f t="shared" ref="E52:E56" si="20">D52/$D$7</f>
         <v>2.0112106860358282E-2</v>
       </c>
-      <c r="F52" s="298"/>
+      <c r="F52" s="284"/>
       <c r="G52" s="22">
         <f>ROUND('PU Wise OWE'!$AK$126/10000,2)-G43</f>
         <v>127.84</v>
@@ -51922,7 +51922,7 @@
         <f t="shared" si="20"/>
         <v>1.4636689011733478E-2</v>
       </c>
-      <c r="F53" s="299"/>
+      <c r="F53" s="285"/>
       <c r="G53" s="22">
         <f>ROUND('PU Wise OWE'!$AL$126/10000,2)</f>
         <v>100.46</v>
@@ -51968,7 +51968,7 @@
         <f t="shared" si="20"/>
         <v>3.4748795872091766E-2</v>
       </c>
-      <c r="F54" s="300"/>
+      <c r="F54" s="286"/>
       <c r="G54" s="74">
         <f t="shared" ref="G54:I54" si="24">SUM(G52:G53)</f>
         <v>228.3</v>
@@ -52059,39 +52059,39 @@
       <c r="M57" s="100"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C58" s="284" t="s">
+      <c r="C58" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="D58" s="281" t="str">
+      <c r="D58" s="289" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="E58" s="284" t="s">
+      <c r="E58" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="284"/>
+      <c r="F58" s="291"/>
       <c r="G58" s="315" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="H58" s="284" t="s">
+      <c r="H58" s="291" t="s">
         <v>295</v>
       </c>
-      <c r="I58" s="281" t="str">
+      <c r="I58" s="289" t="str">
         <f>'PU Wise OWE'!B8</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J58" s="284" t="s">
+      <c r="J58" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="K58" s="283" t="s">
+      <c r="K58" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="L58" s="283"/>
-      <c r="M58" s="285" t="s">
+      <c r="L58" s="267"/>
+      <c r="M58" s="268" t="s">
         <v>308</v>
       </c>
-      <c r="N58" s="320" t="s">
+      <c r="N58" s="314" t="s">
         <v>208</v>
       </c>
     </row>
@@ -52099,22 +52099,22 @@
       <c r="B59" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="282"/>
-      <c r="D59" s="282"/>
-      <c r="E59" s="282"/>
-      <c r="F59" s="282"/>
+      <c r="C59" s="290"/>
+      <c r="D59" s="290"/>
+      <c r="E59" s="290"/>
+      <c r="F59" s="290"/>
       <c r="G59" s="316"/>
-      <c r="H59" s="282"/>
-      <c r="I59" s="282"/>
-      <c r="J59" s="282"/>
+      <c r="H59" s="290"/>
+      <c r="I59" s="290"/>
+      <c r="J59" s="290"/>
       <c r="K59" s="79" t="s">
         <v>145</v>
       </c>
       <c r="L59" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="M59" s="285"/>
-      <c r="N59" s="320"/>
+      <c r="M59" s="268"/>
+      <c r="N59" s="314"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="23" t="s">
@@ -52131,7 +52131,7 @@
         <f t="shared" ref="E60:E64" si="27">D60/$D$7</f>
         <v>9.3422383631903434E-3</v>
       </c>
-      <c r="F60" s="295"/>
+      <c r="F60" s="281"/>
       <c r="G60" s="22">
         <f>ROUND('PU Wise OWE'!$AM$60/10000,2)</f>
         <v>80.11</v>
@@ -52177,7 +52177,7 @@
         <f t="shared" si="27"/>
         <v>2.3773212523548934E-3</v>
       </c>
-      <c r="F61" s="296"/>
+      <c r="F61" s="282"/>
       <c r="G61" s="22">
         <f>ROUND('PU Wise OWE'!$AM$93/10000,2)</f>
         <v>18.62</v>
@@ -52222,7 +52222,7 @@
         <f t="shared" si="27"/>
         <v>1.6410786263816148E-3</v>
       </c>
-      <c r="F62" s="296"/>
+      <c r="F62" s="282"/>
       <c r="G62" s="22">
         <f>ROUND('PU Wise OWE'!$AN$16/10000,2)</f>
         <v>14.8</v>
@@ -52268,7 +52268,7 @@
         <f t="shared" si="27"/>
         <v>4.2999044121968795E-4</v>
       </c>
-      <c r="F63" s="296"/>
+      <c r="F63" s="282"/>
       <c r="G63" s="22">
         <f>ROUND('PU Wise OWE'!$AN$60/10000,2)</f>
         <v>3.34</v>
@@ -52314,7 +52314,7 @@
         <f t="shared" si="27"/>
         <v>1.3790628683146539E-2</v>
       </c>
-      <c r="F64" s="297"/>
+      <c r="F64" s="283"/>
       <c r="G64" s="26">
         <f>SUM(G60:G63)</f>
         <v>116.87</v>
@@ -53034,33 +53034,33 @@
     </row>
     <row r="87" spans="2:13" s="147" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="245"/>
-      <c r="C87" s="307" t="s">
+      <c r="C87" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="D87" s="309" t="s">
+      <c r="D87" s="310" t="s">
         <v>297</v>
       </c>
-      <c r="E87" s="307" t="s">
+      <c r="E87" s="308" t="s">
         <v>173</v>
       </c>
-      <c r="F87" s="307"/>
-      <c r="G87" s="313" t="s">
+      <c r="F87" s="308"/>
+      <c r="G87" s="311" t="s">
         <v>301</v>
       </c>
-      <c r="H87" s="307" t="s">
+      <c r="H87" s="308" t="s">
         <v>303</v>
       </c>
-      <c r="I87" s="309" t="s">
+      <c r="I87" s="310" t="s">
         <v>298</v>
       </c>
-      <c r="J87" s="307" t="s">
+      <c r="J87" s="308" t="s">
         <v>205</v>
       </c>
-      <c r="K87" s="311" t="s">
+      <c r="K87" s="313" t="s">
         <v>147</v>
       </c>
-      <c r="L87" s="311"/>
-      <c r="M87" s="312" t="s">
+      <c r="L87" s="313"/>
+      <c r="M87" s="307" t="s">
         <v>300</v>
       </c>
     </row>
@@ -53068,21 +53068,21 @@
       <c r="B88" s="231" t="s">
         <v>253</v>
       </c>
-      <c r="C88" s="308"/>
-      <c r="D88" s="308"/>
-      <c r="E88" s="308"/>
-      <c r="F88" s="308"/>
-      <c r="G88" s="314"/>
-      <c r="H88" s="308"/>
-      <c r="I88" s="310"/>
-      <c r="J88" s="308"/>
+      <c r="C88" s="309"/>
+      <c r="D88" s="309"/>
+      <c r="E88" s="309"/>
+      <c r="F88" s="309"/>
+      <c r="G88" s="312"/>
+      <c r="H88" s="309"/>
+      <c r="I88" s="321"/>
+      <c r="J88" s="309"/>
       <c r="K88" s="232" t="s">
         <v>145</v>
       </c>
       <c r="L88" s="232" t="s">
         <v>146</v>
       </c>
-      <c r="M88" s="312"/>
+      <c r="M88" s="307"/>
     </row>
     <row r="89" spans="2:13" s="147" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="233" t="s">
@@ -53711,36 +53711,36 @@
     </row>
     <row r="104" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="230"/>
-      <c r="C104" s="307" t="s">
+      <c r="C104" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="D104" s="309" t="str">
+      <c r="D104" s="310" t="str">
         <f>'PU Wise OWE'!$B$7</f>
         <v>Actuals upto Dec' 20</v>
       </c>
-      <c r="E104" s="307" t="s">
+      <c r="E104" s="308" t="s">
         <v>173</v>
       </c>
-      <c r="F104" s="307"/>
-      <c r="G104" s="313" t="str">
+      <c r="F104" s="308"/>
+      <c r="G104" s="311" t="str">
         <f>'PU Wise OWE'!$B$5</f>
         <v xml:space="preserve">RG 2021-22 </v>
       </c>
-      <c r="H104" s="307" t="s">
+      <c r="H104" s="308" t="s">
         <v>304</v>
       </c>
-      <c r="I104" s="309" t="str">
+      <c r="I104" s="310" t="str">
         <f>I40</f>
         <v>Actuals upto Dec' 21</v>
       </c>
-      <c r="J104" s="307" t="s">
+      <c r="J104" s="308" t="s">
         <v>205</v>
       </c>
-      <c r="K104" s="311" t="s">
+      <c r="K104" s="313" t="s">
         <v>147</v>
       </c>
-      <c r="L104" s="311"/>
-      <c r="M104" s="312" t="s">
+      <c r="L104" s="313"/>
+      <c r="M104" s="307" t="s">
         <v>300</v>
       </c>
     </row>
@@ -53748,21 +53748,21 @@
       <c r="B105" s="231" t="s">
         <v>191</v>
       </c>
-      <c r="C105" s="308"/>
-      <c r="D105" s="308"/>
-      <c r="E105" s="308"/>
-      <c r="F105" s="308"/>
-      <c r="G105" s="314"/>
-      <c r="H105" s="308"/>
-      <c r="I105" s="308"/>
-      <c r="J105" s="308"/>
+      <c r="C105" s="309"/>
+      <c r="D105" s="309"/>
+      <c r="E105" s="309"/>
+      <c r="F105" s="309"/>
+      <c r="G105" s="312"/>
+      <c r="H105" s="309"/>
+      <c r="I105" s="309"/>
+      <c r="J105" s="309"/>
       <c r="K105" s="232" t="s">
         <v>145</v>
       </c>
       <c r="L105" s="232" t="s">
         <v>146</v>
       </c>
-      <c r="M105" s="312"/>
+      <c r="M105" s="307"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="233" t="s">
@@ -54168,46 +54168,32 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I58:I59"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
@@ -54224,32 +54210,46 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:L104"/>
   </mergeCells>
   <conditionalFormatting sqref="M13:M27">
     <cfRule type="cellIs" dxfId="16" priority="12" operator="greaterThan">
